--- a/reduced_dataset.xlsx
+++ b/reduced_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>thickness</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>blaChroma</t>
-  </si>
-  <si>
-    <t>class</t>
   </si>
 </sst>
 </file>
@@ -389,13 +386,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G700"/>
+  <dimension ref="A1:F700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,11 +408,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -434,11 +428,8 @@
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -457,11 +448,8 @@
       <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -480,11 +468,8 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -503,11 +488,8 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -526,11 +508,8 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -549,11 +528,8 @@
       <c r="F7">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -572,11 +548,8 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -595,11 +568,8 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -618,11 +588,8 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -641,11 +608,8 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -664,11 +628,8 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -687,11 +648,8 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -710,11 +668,8 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -733,11 +688,8 @@
       <c r="F15">
         <v>3</v>
       </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -756,11 +708,8 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -779,11 +728,8 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -802,11 +748,8 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -825,11 +768,8 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -848,11 +788,8 @@
       <c r="F20">
         <v>4</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -871,11 +808,8 @@
       <c r="F21">
         <v>3</v>
       </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -894,11 +828,8 @@
       <c r="F22">
         <v>5</v>
       </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -917,11 +848,8 @@
       <c r="F23">
         <v>7</v>
       </c>
-      <c r="G23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -940,11 +868,8 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -963,11 +888,8 @@
       <c r="F25">
         <v>7</v>
       </c>
-      <c r="G25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -986,11 +908,8 @@
       <c r="F26">
         <v>3</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1009,11 +928,8 @@
       <c r="F27">
         <v>3</v>
       </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1032,11 +948,8 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1055,11 +968,8 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1078,11 +988,8 @@
       <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1101,11 +1008,8 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1124,11 +1028,8 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1147,11 +1048,8 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1170,11 +1068,8 @@
       <c r="F34">
         <v>7</v>
       </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1193,11 +1088,8 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1216,11 +1108,8 @@
       <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1239,11 +1128,8 @@
       <c r="F37">
         <v>2</v>
       </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1262,11 +1148,8 @@
       <c r="F38">
         <v>8</v>
       </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1285,11 +1168,8 @@
       <c r="F39">
         <v>7</v>
       </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1308,11 +1188,8 @@
       <c r="F40">
         <v>5</v>
       </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1331,11 +1208,8 @@
       <c r="F41">
         <v>7</v>
       </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1354,11 +1228,8 @@
       <c r="F42">
         <v>7</v>
       </c>
-      <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1377,11 +1248,8 @@
       <c r="F43">
         <v>6</v>
       </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1400,11 +1268,8 @@
       <c r="F44">
         <v>7</v>
       </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1423,11 +1288,8 @@
       <c r="F45">
         <v>3</v>
       </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1446,11 +1308,8 @@
       <c r="F46">
         <v>8</v>
       </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1469,11 +1328,8 @@
       <c r="F47">
         <v>2</v>
       </c>
-      <c r="G47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1492,11 +1348,8 @@
       <c r="F48">
         <v>4</v>
       </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1515,11 +1368,8 @@
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1538,11 +1388,8 @@
       <c r="F50">
         <v>3</v>
       </c>
-      <c r="G50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1561,11 +1408,8 @@
       <c r="F51">
         <v>3</v>
       </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1584,11 +1428,8 @@
       <c r="F52">
         <v>2</v>
       </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1607,11 +1448,8 @@
       <c r="F53">
         <v>3</v>
       </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1630,11 +1468,8 @@
       <c r="F54">
         <v>4</v>
       </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1653,11 +1488,8 @@
       <c r="F55">
         <v>7</v>
       </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1676,11 +1508,8 @@
       <c r="F56">
         <v>7</v>
       </c>
-      <c r="G56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1699,11 +1528,8 @@
       <c r="F57">
         <v>3</v>
       </c>
-      <c r="G57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1722,11 +1548,8 @@
       <c r="F58">
         <v>3</v>
       </c>
-      <c r="G58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1745,11 +1568,8 @@
       <c r="F59">
         <v>5</v>
       </c>
-      <c r="G59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1768,11 +1588,8 @@
       <c r="F60">
         <v>5</v>
       </c>
-      <c r="G60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1791,11 +1608,8 @@
       <c r="F61">
         <v>5</v>
       </c>
-      <c r="G61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1814,11 +1628,8 @@
       <c r="F62">
         <v>4</v>
       </c>
-      <c r="G62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1837,11 +1648,8 @@
       <c r="F63">
         <v>2</v>
       </c>
-      <c r="G63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1860,11 +1668,8 @@
       <c r="F64">
         <v>3</v>
       </c>
-      <c r="G64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1883,11 +1688,8 @@
       <c r="F65">
         <v>3</v>
       </c>
-      <c r="G65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1906,11 +1708,8 @@
       <c r="F66">
         <v>2</v>
       </c>
-      <c r="G66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1929,11 +1728,8 @@
       <c r="F67">
         <v>4</v>
       </c>
-      <c r="G67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1952,11 +1748,8 @@
       <c r="F68">
         <v>3</v>
       </c>
-      <c r="G68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1975,11 +1768,8 @@
       <c r="F69">
         <v>4</v>
       </c>
-      <c r="G69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1998,11 +1788,8 @@
       <c r="F70">
         <v>8</v>
       </c>
-      <c r="G70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2021,11 +1808,8 @@
       <c r="F71">
         <v>3</v>
       </c>
-      <c r="G71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2044,11 +1828,8 @@
       <c r="F72">
         <v>2</v>
       </c>
-      <c r="G72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2067,11 +1848,8 @@
       <c r="F73">
         <v>7</v>
       </c>
-      <c r="G73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2090,11 +1868,8 @@
       <c r="F74">
         <v>7</v>
       </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2113,11 +1888,8 @@
       <c r="F75">
         <v>4</v>
       </c>
-      <c r="G75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2136,11 +1908,8 @@
       <c r="F76">
         <v>3</v>
       </c>
-      <c r="G76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2159,11 +1928,8 @@
       <c r="F77">
         <v>4</v>
       </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2182,11 +1948,8 @@
       <c r="F78">
         <v>2</v>
       </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2205,11 +1968,8 @@
       <c r="F79">
         <v>2</v>
       </c>
-      <c r="G79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2228,11 +1988,8 @@
       <c r="F80">
         <v>3</v>
       </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2251,11 +2008,8 @@
       <c r="F81">
         <v>2</v>
       </c>
-      <c r="G81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2274,11 +2028,8 @@
       <c r="F82">
         <v>7</v>
       </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2297,11 +2048,8 @@
       <c r="F83">
         <v>2</v>
       </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2320,11 +2068,8 @@
       <c r="F84">
         <v>3</v>
       </c>
-      <c r="G84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2343,11 +2088,8 @@
       <c r="F85">
         <v>7</v>
       </c>
-      <c r="G85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2366,11 +2108,8 @@
       <c r="F86">
         <v>7</v>
       </c>
-      <c r="G86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2389,11 +2128,8 @@
       <c r="F87">
         <v>4</v>
       </c>
-      <c r="G87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2412,11 +2148,8 @@
       <c r="F88">
         <v>4</v>
       </c>
-      <c r="G88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2435,11 +2168,8 @@
       <c r="F89">
         <v>6</v>
       </c>
-      <c r="G89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2458,11 +2188,8 @@
       <c r="F90">
         <v>3</v>
       </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2481,11 +2208,8 @@
       <c r="F91">
         <v>2</v>
       </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2504,11 +2228,8 @@
       <c r="F92">
         <v>3</v>
       </c>
-      <c r="G92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2527,11 +2248,8 @@
       <c r="F93">
         <v>1</v>
       </c>
-      <c r="G93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2550,11 +2268,8 @@
       <c r="F94">
         <v>3</v>
       </c>
-      <c r="G94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2573,11 +2288,8 @@
       <c r="F95">
         <v>2</v>
       </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2596,11 +2308,8 @@
       <c r="F96">
         <v>3</v>
       </c>
-      <c r="G96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2619,11 +2328,8 @@
       <c r="F97">
         <v>3</v>
       </c>
-      <c r="G97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2642,11 +2348,8 @@
       <c r="F98">
         <v>1</v>
       </c>
-      <c r="G98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2665,11 +2368,8 @@
       <c r="F99">
         <v>3</v>
       </c>
-      <c r="G99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2688,11 +2388,8 @@
       <c r="F100">
         <v>2</v>
       </c>
-      <c r="G100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2711,11 +2408,8 @@
       <c r="F101">
         <v>7</v>
       </c>
-      <c r="G101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2734,11 +2428,8 @@
       <c r="F102">
         <v>3</v>
       </c>
-      <c r="G102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2757,11 +2448,8 @@
       <c r="F103">
         <v>2</v>
       </c>
-      <c r="G103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2780,11 +2468,8 @@
       <c r="F104">
         <v>3</v>
       </c>
-      <c r="G104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2803,11 +2488,8 @@
       <c r="F105">
         <v>7</v>
       </c>
-      <c r="G105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2826,11 +2508,8 @@
       <c r="F106">
         <v>8</v>
       </c>
-      <c r="G106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2849,11 +2528,8 @@
       <c r="F107">
         <v>3</v>
       </c>
-      <c r="G107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2872,11 +2548,8 @@
       <c r="F108">
         <v>4</v>
       </c>
-      <c r="G108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2895,11 +2568,8 @@
       <c r="F109">
         <v>5</v>
       </c>
-      <c r="G109">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2918,11 +2588,8 @@
       <c r="F110">
         <v>2</v>
       </c>
-      <c r="G110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2941,11 +2608,8 @@
       <c r="F111">
         <v>7</v>
       </c>
-      <c r="G111">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2964,11 +2628,8 @@
       <c r="F112">
         <v>5</v>
       </c>
-      <c r="G112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2987,11 +2648,8 @@
       <c r="F113">
         <v>3</v>
       </c>
-      <c r="G113">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3010,11 +2668,8 @@
       <c r="F114">
         <v>7</v>
       </c>
-      <c r="G114">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3033,11 +2688,8 @@
       <c r="F115">
         <v>8</v>
       </c>
-      <c r="G115">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3056,11 +2708,8 @@
       <c r="F116">
         <v>3</v>
       </c>
-      <c r="G116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3079,11 +2728,8 @@
       <c r="F117">
         <v>1</v>
       </c>
-      <c r="G117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3102,11 +2748,8 @@
       <c r="F118">
         <v>3</v>
       </c>
-      <c r="G118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3125,11 +2768,8 @@
       <c r="F119">
         <v>7</v>
       </c>
-      <c r="G119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3148,11 +2788,8 @@
       <c r="F120">
         <v>1</v>
       </c>
-      <c r="G120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3171,11 +2808,8 @@
       <c r="F121">
         <v>3</v>
       </c>
-      <c r="G121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3194,11 +2828,8 @@
       <c r="F122">
         <v>3</v>
       </c>
-      <c r="G122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3217,11 +2848,8 @@
       <c r="F123">
         <v>3</v>
       </c>
-      <c r="G123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3240,11 +2868,8 @@
       <c r="F124">
         <v>5</v>
       </c>
-      <c r="G124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3263,11 +2888,8 @@
       <c r="F125">
         <v>5</v>
       </c>
-      <c r="G125">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3286,11 +2908,8 @@
       <c r="F126">
         <v>8</v>
       </c>
-      <c r="G126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3309,11 +2928,8 @@
       <c r="F127">
         <v>2</v>
       </c>
-      <c r="G127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3332,11 +2948,8 @@
       <c r="F128">
         <v>7</v>
       </c>
-      <c r="G128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3355,11 +2968,8 @@
       <c r="F129">
         <v>3</v>
       </c>
-      <c r="G129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3378,11 +2988,8 @@
       <c r="F130">
         <v>1</v>
       </c>
-      <c r="G130">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3401,11 +3008,8 @@
       <c r="F131">
         <v>1</v>
       </c>
-      <c r="G131">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3424,11 +3028,8 @@
       <c r="F132">
         <v>2</v>
       </c>
-      <c r="G132">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3447,11 +3048,8 @@
       <c r="F133">
         <v>3</v>
       </c>
-      <c r="G133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3470,11 +3068,8 @@
       <c r="F134">
         <v>3</v>
       </c>
-      <c r="G134">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3493,11 +3088,8 @@
       <c r="F135">
         <v>2</v>
       </c>
-      <c r="G135">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3516,11 +3108,8 @@
       <c r="F136">
         <v>2</v>
       </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3539,11 +3128,8 @@
       <c r="F137">
         <v>3</v>
       </c>
-      <c r="G137">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3562,11 +3148,8 @@
       <c r="F138">
         <v>2</v>
       </c>
-      <c r="G138">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3585,11 +3168,8 @@
       <c r="F139">
         <v>1</v>
       </c>
-      <c r="G139">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3608,11 +3188,8 @@
       <c r="F140">
         <v>2</v>
       </c>
-      <c r="G140">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3631,11 +3208,8 @@
       <c r="F141">
         <v>2</v>
       </c>
-      <c r="G141">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3654,11 +3228,8 @@
       <c r="F142">
         <v>1</v>
       </c>
-      <c r="G142">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3677,11 +3248,8 @@
       <c r="F143">
         <v>1</v>
       </c>
-      <c r="G143">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3700,11 +3268,8 @@
       <c r="F144">
         <v>4</v>
       </c>
-      <c r="G144">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3723,11 +3288,8 @@
       <c r="F145">
         <v>1</v>
       </c>
-      <c r="G145">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3746,11 +3308,8 @@
       <c r="F146">
         <v>2</v>
       </c>
-      <c r="G146">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3769,11 +3328,8 @@
       <c r="F147">
         <v>2</v>
       </c>
-      <c r="G147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3792,11 +3348,8 @@
       <c r="F148">
         <v>4</v>
       </c>
-      <c r="G148">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3815,11 +3368,8 @@
       <c r="F149">
         <v>2</v>
       </c>
-      <c r="G149">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3838,11 +3388,8 @@
       <c r="F150">
         <v>5</v>
       </c>
-      <c r="G150">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3861,11 +3408,8 @@
       <c r="F151">
         <v>7</v>
       </c>
-      <c r="G151">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3884,11 +3428,8 @@
       <c r="F152">
         <v>3</v>
       </c>
-      <c r="G152">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3907,11 +3448,8 @@
       <c r="F153">
         <v>5</v>
       </c>
-      <c r="G153">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3930,11 +3468,8 @@
       <c r="F154">
         <v>8</v>
       </c>
-      <c r="G154">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3953,11 +3488,8 @@
       <c r="F155">
         <v>1</v>
       </c>
-      <c r="G155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3976,11 +3508,8 @@
       <c r="F156">
         <v>1</v>
       </c>
-      <c r="G156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3999,11 +3528,8 @@
       <c r="F157">
         <v>3</v>
       </c>
-      <c r="G157">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4022,11 +3548,8 @@
       <c r="F158">
         <v>2</v>
       </c>
-      <c r="G158">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4045,11 +3568,8 @@
       <c r="F159">
         <v>3</v>
       </c>
-      <c r="G159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4068,11 +3588,8 @@
       <c r="F160">
         <v>1</v>
       </c>
-      <c r="G160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4091,11 +3608,8 @@
       <c r="F161">
         <v>7</v>
       </c>
-      <c r="G161">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4114,11 +3628,8 @@
       <c r="F162">
         <v>5</v>
       </c>
-      <c r="G162">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4137,11 +3648,8 @@
       <c r="F163">
         <v>3</v>
       </c>
-      <c r="G163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4160,11 +3668,8 @@
       <c r="F164">
         <v>3</v>
       </c>
-      <c r="G164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4183,11 +3688,8 @@
       <c r="F165">
         <v>1</v>
       </c>
-      <c r="G165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4206,11 +3708,8 @@
       <c r="F166">
         <v>3</v>
       </c>
-      <c r="G166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4229,11 +3728,8 @@
       <c r="F167">
         <v>3</v>
       </c>
-      <c r="G167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4252,11 +3748,8 @@
       <c r="F168">
         <v>3</v>
       </c>
-      <c r="G168">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4275,11 +3768,8 @@
       <c r="F169">
         <v>3</v>
       </c>
-      <c r="G169">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4298,11 +3788,8 @@
       <c r="F170">
         <v>3</v>
       </c>
-      <c r="G170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4321,11 +3808,8 @@
       <c r="F171">
         <v>1</v>
       </c>
-      <c r="G171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4344,11 +3828,8 @@
       <c r="F172">
         <v>1</v>
       </c>
-      <c r="G172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4367,11 +3848,8 @@
       <c r="F173">
         <v>3</v>
       </c>
-      <c r="G173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4390,11 +3868,8 @@
       <c r="F174">
         <v>2</v>
       </c>
-      <c r="G174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4413,11 +3888,8 @@
       <c r="F175">
         <v>10</v>
       </c>
-      <c r="G175">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4436,11 +3908,8 @@
       <c r="F176">
         <v>6</v>
       </c>
-      <c r="G176">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4459,11 +3928,8 @@
       <c r="F177">
         <v>5</v>
       </c>
-      <c r="G177">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4482,11 +3948,8 @@
       <c r="F178">
         <v>3</v>
       </c>
-      <c r="G178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4505,11 +3968,8 @@
       <c r="F179">
         <v>5</v>
       </c>
-      <c r="G179">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4528,11 +3988,8 @@
       <c r="F180">
         <v>3</v>
       </c>
-      <c r="G180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4551,11 +4008,8 @@
       <c r="F181">
         <v>3</v>
       </c>
-      <c r="G181">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4574,11 +4028,8 @@
       <c r="F182">
         <v>3</v>
       </c>
-      <c r="G182">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4597,11 +4048,8 @@
       <c r="F183">
         <v>1</v>
       </c>
-      <c r="G183">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4620,11 +4068,8 @@
       <c r="F184">
         <v>3</v>
       </c>
-      <c r="G184">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4643,11 +4088,8 @@
       <c r="F185">
         <v>7</v>
       </c>
-      <c r="G185">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4666,11 +4108,8 @@
       <c r="F186">
         <v>5</v>
       </c>
-      <c r="G186">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4689,11 +4128,8 @@
       <c r="F187">
         <v>3</v>
       </c>
-      <c r="G187">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4712,11 +4148,8 @@
       <c r="F188">
         <v>7</v>
       </c>
-      <c r="G188">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4735,11 +4168,8 @@
       <c r="F189">
         <v>7</v>
       </c>
-      <c r="G189">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4758,11 +4188,8 @@
       <c r="F190">
         <v>9</v>
       </c>
-      <c r="G190">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4781,11 +4208,8 @@
       <c r="F191">
         <v>3</v>
       </c>
-      <c r="G191">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4804,11 +4228,8 @@
       <c r="F192">
         <v>7</v>
       </c>
-      <c r="G192">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4827,11 +4248,8 @@
       <c r="F193">
         <v>4</v>
       </c>
-      <c r="G193">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4850,11 +4268,8 @@
       <c r="F194">
         <v>2</v>
       </c>
-      <c r="G194">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4873,11 +4288,8 @@
       <c r="F195">
         <v>3</v>
       </c>
-      <c r="G195">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4896,11 +4308,8 @@
       <c r="F196">
         <v>3</v>
       </c>
-      <c r="G196">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4919,11 +4328,8 @@
       <c r="F197">
         <v>3</v>
       </c>
-      <c r="G197">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4942,11 +4348,8 @@
       <c r="F198">
         <v>7</v>
       </c>
-      <c r="G198">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4965,11 +4368,8 @@
       <c r="F199">
         <v>3</v>
       </c>
-      <c r="G199">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4988,11 +4388,8 @@
       <c r="F200">
         <v>1</v>
       </c>
-      <c r="G200">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5011,11 +4408,8 @@
       <c r="F201">
         <v>2</v>
       </c>
-      <c r="G201">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5034,11 +4428,8 @@
       <c r="F202">
         <v>7</v>
       </c>
-      <c r="G202">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5057,11 +4448,8 @@
       <c r="F203">
         <v>8</v>
       </c>
-      <c r="G203">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5080,11 +4468,8 @@
       <c r="F204">
         <v>3</v>
       </c>
-      <c r="G204">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5103,11 +4488,8 @@
       <c r="F205">
         <v>3</v>
       </c>
-      <c r="G205">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5126,11 +4508,8 @@
       <c r="F206">
         <v>3</v>
       </c>
-      <c r="G206">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5149,11 +4528,8 @@
       <c r="F207">
         <v>7</v>
       </c>
-      <c r="G207">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5172,11 +4548,8 @@
       <c r="F208">
         <v>3</v>
       </c>
-      <c r="G208">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5195,11 +4568,8 @@
       <c r="F209">
         <v>3</v>
       </c>
-      <c r="G209">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5218,11 +4588,8 @@
       <c r="F210">
         <v>3</v>
       </c>
-      <c r="G210">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5241,11 +4608,8 @@
       <c r="F211">
         <v>3</v>
       </c>
-      <c r="G211">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5264,11 +4628,8 @@
       <c r="F212">
         <v>8</v>
       </c>
-      <c r="G212">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5287,11 +4648,8 @@
       <c r="F213">
         <v>7</v>
       </c>
-      <c r="G213">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5310,11 +4668,8 @@
       <c r="F214">
         <v>3</v>
       </c>
-      <c r="G214">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5333,11 +4688,8 @@
       <c r="F215">
         <v>7</v>
       </c>
-      <c r="G215">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5356,11 +4708,8 @@
       <c r="F216">
         <v>10</v>
       </c>
-      <c r="G216">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5379,11 +4728,8 @@
       <c r="F217">
         <v>5</v>
       </c>
-      <c r="G217">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5402,11 +4748,8 @@
       <c r="F218">
         <v>2</v>
       </c>
-      <c r="G218">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5425,11 +4768,8 @@
       <c r="F219">
         <v>3</v>
       </c>
-      <c r="G219">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5448,11 +4788,8 @@
       <c r="F220">
         <v>8</v>
       </c>
-      <c r="G220">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5471,11 +4808,8 @@
       <c r="F221">
         <v>3</v>
       </c>
-      <c r="G221">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5494,11 +4828,8 @@
       <c r="F222">
         <v>3</v>
       </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5517,11 +4848,8 @@
       <c r="F223">
         <v>9</v>
       </c>
-      <c r="G223">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5540,11 +4868,8 @@
       <c r="F224">
         <v>2</v>
       </c>
-      <c r="G224">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5563,11 +4888,8 @@
       <c r="F225">
         <v>7</v>
       </c>
-      <c r="G225">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5586,11 +4908,8 @@
       <c r="F226">
         <v>7</v>
       </c>
-      <c r="G226">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5609,11 +4928,8 @@
       <c r="F227">
         <v>2</v>
       </c>
-      <c r="G227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5632,11 +4948,8 @@
       <c r="F228">
         <v>8</v>
       </c>
-      <c r="G228">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5655,11 +4968,8 @@
       <c r="F229">
         <v>7</v>
       </c>
-      <c r="G229">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5678,11 +4988,8 @@
       <c r="F230">
         <v>3</v>
       </c>
-      <c r="G230">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5701,11 +5008,8 @@
       <c r="F231">
         <v>9</v>
       </c>
-      <c r="G231">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5724,11 +5028,8 @@
       <c r="F232">
         <v>7</v>
       </c>
-      <c r="G232">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5747,11 +5048,8 @@
       <c r="F233">
         <v>8</v>
       </c>
-      <c r="G233">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5770,11 +5068,8 @@
       <c r="F234">
         <v>4</v>
       </c>
-      <c r="G234">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5793,11 +5088,8 @@
       <c r="F235">
         <v>4</v>
       </c>
-      <c r="G235">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5816,11 +5108,8 @@
       <c r="F236">
         <v>3</v>
       </c>
-      <c r="G236">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5839,11 +5128,8 @@
       <c r="F237">
         <v>3</v>
       </c>
-      <c r="G237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5862,11 +5148,8 @@
       <c r="F238">
         <v>4</v>
       </c>
-      <c r="G238">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5885,11 +5168,8 @@
       <c r="F239">
         <v>4</v>
       </c>
-      <c r="G239">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5908,11 +5188,8 @@
       <c r="F240">
         <v>3</v>
       </c>
-      <c r="G240">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5931,11 +5208,8 @@
       <c r="F241">
         <v>5</v>
       </c>
-      <c r="G241">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5954,11 +5228,8 @@
       <c r="F242">
         <v>2</v>
       </c>
-      <c r="G242">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5977,11 +5248,8 @@
       <c r="F243">
         <v>3</v>
       </c>
-      <c r="G243">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6000,11 +5268,8 @@
       <c r="F244">
         <v>3</v>
       </c>
-      <c r="G244">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6023,11 +5288,8 @@
       <c r="F245">
         <v>5</v>
       </c>
-      <c r="G245">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6046,11 +5308,8 @@
       <c r="F246">
         <v>3</v>
       </c>
-      <c r="G246">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6069,11 +5328,8 @@
       <c r="F247">
         <v>3</v>
       </c>
-      <c r="G247">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6092,11 +5348,8 @@
       <c r="F248">
         <v>7</v>
       </c>
-      <c r="G248">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6115,11 +5368,8 @@
       <c r="F249">
         <v>3</v>
       </c>
-      <c r="G249">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6138,11 +5388,8 @@
       <c r="F250">
         <v>3</v>
       </c>
-      <c r="G250">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6161,11 +5408,8 @@
       <c r="F251">
         <v>3</v>
       </c>
-      <c r="G251">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6184,11 +5428,8 @@
       <c r="F252">
         <v>1</v>
       </c>
-      <c r="G252">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6207,11 +5448,8 @@
       <c r="F253">
         <v>5</v>
       </c>
-      <c r="G253">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6230,11 +5468,8 @@
       <c r="F254">
         <v>3</v>
       </c>
-      <c r="G254">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6253,11 +5488,8 @@
       <c r="F255">
         <v>7</v>
       </c>
-      <c r="G255">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6276,11 +5508,8 @@
       <c r="F256">
         <v>3</v>
       </c>
-      <c r="G256">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6299,11 +5528,8 @@
       <c r="F257">
         <v>3</v>
       </c>
-      <c r="G257">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6322,11 +5548,8 @@
       <c r="F258">
         <v>1</v>
       </c>
-      <c r="G258">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6345,11 +5568,8 @@
       <c r="F259">
         <v>2</v>
       </c>
-      <c r="G259">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6368,11 +5588,8 @@
       <c r="F260">
         <v>3</v>
       </c>
-      <c r="G260">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6391,11 +5608,8 @@
       <c r="F261">
         <v>3</v>
       </c>
-      <c r="G261">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6414,11 +5628,8 @@
       <c r="F262">
         <v>5</v>
       </c>
-      <c r="G262">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6437,11 +5648,8 @@
       <c r="F263">
         <v>10</v>
       </c>
-      <c r="G263">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6460,11 +5668,8 @@
       <c r="F264">
         <v>7</v>
       </c>
-      <c r="G264">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6483,11 +5688,8 @@
       <c r="F265">
         <v>5</v>
       </c>
-      <c r="G265">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6506,11 +5708,8 @@
       <c r="F266">
         <v>5</v>
       </c>
-      <c r="G266">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6529,11 +5728,8 @@
       <c r="F267">
         <v>3</v>
       </c>
-      <c r="G267">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6552,11 +5748,8 @@
       <c r="F268">
         <v>4</v>
       </c>
-      <c r="G268">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6575,11 +5768,8 @@
       <c r="F269">
         <v>7</v>
       </c>
-      <c r="G269">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6598,11 +5788,8 @@
       <c r="F270">
         <v>8</v>
       </c>
-      <c r="G270">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6621,11 +5808,8 @@
       <c r="F271">
         <v>3</v>
       </c>
-      <c r="G271">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6644,11 +5828,8 @@
       <c r="F272">
         <v>3</v>
       </c>
-      <c r="G272">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6667,11 +5848,8 @@
       <c r="F273">
         <v>3</v>
       </c>
-      <c r="G273">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6690,11 +5868,8 @@
       <c r="F274">
         <v>7</v>
       </c>
-      <c r="G274">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6713,11 +5888,8 @@
       <c r="F275">
         <v>3</v>
       </c>
-      <c r="G275">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6736,11 +5908,8 @@
       <c r="F276">
         <v>3</v>
       </c>
-      <c r="G276">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6759,11 +5928,8 @@
       <c r="F277">
         <v>2</v>
       </c>
-      <c r="G277">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6782,11 +5948,8 @@
       <c r="F278">
         <v>2</v>
       </c>
-      <c r="G278">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6805,11 +5968,8 @@
       <c r="F279">
         <v>2</v>
       </c>
-      <c r="G279">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6828,11 +5988,8 @@
       <c r="F280">
         <v>3</v>
       </c>
-      <c r="G280">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6851,11 +6008,8 @@
       <c r="F281">
         <v>3</v>
       </c>
-      <c r="G281">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6874,11 +6028,8 @@
       <c r="F282">
         <v>3</v>
       </c>
-      <c r="G282">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6897,11 +6048,8 @@
       <c r="F283">
         <v>3</v>
       </c>
-      <c r="G283">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6920,11 +6068,8 @@
       <c r="F284">
         <v>5</v>
       </c>
-      <c r="G284">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6943,11 +6088,8 @@
       <c r="F285">
         <v>5</v>
       </c>
-      <c r="G285">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6966,11 +6108,8 @@
       <c r="F286">
         <v>3</v>
       </c>
-      <c r="G286">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6989,11 +6128,8 @@
       <c r="F287">
         <v>10</v>
       </c>
-      <c r="G287">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7012,11 +6148,8 @@
       <c r="F288">
         <v>4</v>
       </c>
-      <c r="G288">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7035,11 +6168,8 @@
       <c r="F289">
         <v>2</v>
       </c>
-      <c r="G289">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7058,11 +6188,8 @@
       <c r="F290">
         <v>5</v>
       </c>
-      <c r="G290">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7081,11 +6208,8 @@
       <c r="F291">
         <v>4</v>
       </c>
-      <c r="G291">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7104,11 +6228,8 @@
       <c r="F292">
         <v>1</v>
       </c>
-      <c r="G292">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7127,11 +6248,8 @@
       <c r="F293">
         <v>3</v>
       </c>
-      <c r="G293">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7150,11 +6268,8 @@
       <c r="F294">
         <v>6</v>
       </c>
-      <c r="G294">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7173,11 +6288,8 @@
       <c r="F295">
         <v>2</v>
       </c>
-      <c r="G295">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7196,11 +6308,8 @@
       <c r="F296">
         <v>2</v>
       </c>
-      <c r="G296">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7219,11 +6328,8 @@
       <c r="F297">
         <v>7</v>
       </c>
-      <c r="G297">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7242,11 +6348,8 @@
       <c r="F298">
         <v>4</v>
       </c>
-      <c r="G298">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7265,11 +6368,8 @@
       <c r="F299">
         <v>2</v>
       </c>
-      <c r="G299">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7288,11 +6388,8 @@
       <c r="F300">
         <v>1</v>
       </c>
-      <c r="G300">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7311,11 +6408,8 @@
       <c r="F301">
         <v>7</v>
       </c>
-      <c r="G301">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7334,11 +6428,8 @@
       <c r="F302">
         <v>7</v>
       </c>
-      <c r="G302">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7357,11 +6448,8 @@
       <c r="F303">
         <v>3</v>
       </c>
-      <c r="G303">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7380,11 +6468,8 @@
       <c r="F304">
         <v>7</v>
       </c>
-      <c r="G304">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7403,11 +6488,8 @@
       <c r="F305">
         <v>3</v>
       </c>
-      <c r="G305">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7426,11 +6508,8 @@
       <c r="F306">
         <v>3</v>
       </c>
-      <c r="G306">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7449,11 +6528,8 @@
       <c r="F307">
         <v>3</v>
       </c>
-      <c r="G307">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7472,11 +6548,8 @@
       <c r="F308">
         <v>3</v>
       </c>
-      <c r="G308">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7495,11 +6568,8 @@
       <c r="F309">
         <v>3</v>
       </c>
-      <c r="G309">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7518,11 +6588,8 @@
       <c r="F310">
         <v>8</v>
       </c>
-      <c r="G310">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7541,11 +6608,8 @@
       <c r="F311">
         <v>5</v>
       </c>
-      <c r="G311">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7564,11 +6628,8 @@
       <c r="F312">
         <v>2</v>
       </c>
-      <c r="G312">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7587,11 +6648,8 @@
       <c r="F313">
         <v>1</v>
       </c>
-      <c r="G313">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7610,11 +6668,8 @@
       <c r="F314">
         <v>3</v>
       </c>
-      <c r="G314">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7633,11 +6688,8 @@
       <c r="F315">
         <v>1</v>
       </c>
-      <c r="G315">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7656,11 +6708,8 @@
       <c r="F316">
         <v>2</v>
       </c>
-      <c r="G316">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7679,11 +6728,8 @@
       <c r="F317">
         <v>4</v>
       </c>
-      <c r="G317">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7702,11 +6748,8 @@
       <c r="F318">
         <v>4</v>
       </c>
-      <c r="G318">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7725,11 +6768,8 @@
       <c r="F319">
         <v>8</v>
       </c>
-      <c r="G319">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7748,11 +6788,8 @@
       <c r="F320">
         <v>3</v>
       </c>
-      <c r="G320">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7771,11 +6808,8 @@
       <c r="F321">
         <v>7</v>
       </c>
-      <c r="G321">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7794,11 +6828,8 @@
       <c r="F322">
         <v>7</v>
       </c>
-      <c r="G322">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7817,11 +6848,8 @@
       <c r="F323">
         <v>3</v>
       </c>
-      <c r="G323">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7840,11 +6868,8 @@
       <c r="F324">
         <v>3</v>
       </c>
-      <c r="G324">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7863,11 +6888,8 @@
       <c r="F325">
         <v>4</v>
       </c>
-      <c r="G325">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7886,11 +6908,8 @@
       <c r="F326">
         <v>3</v>
       </c>
-      <c r="G326">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7909,11 +6928,8 @@
       <c r="F327">
         <v>2</v>
       </c>
-      <c r="G327">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7932,11 +6948,8 @@
       <c r="F328">
         <v>5</v>
       </c>
-      <c r="G328">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7955,11 +6968,8 @@
       <c r="F329">
         <v>2</v>
       </c>
-      <c r="G329">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7978,11 +6988,8 @@
       <c r="F330">
         <v>3</v>
       </c>
-      <c r="G330">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8001,11 +7008,8 @@
       <c r="F331">
         <v>7</v>
       </c>
-      <c r="G331">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8024,11 +7028,8 @@
       <c r="F332">
         <v>6</v>
       </c>
-      <c r="G332">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8047,11 +7048,8 @@
       <c r="F333">
         <v>3</v>
       </c>
-      <c r="G333">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8070,11 +7068,8 @@
       <c r="F334">
         <v>2</v>
       </c>
-      <c r="G334">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8093,11 +7088,8 @@
       <c r="F335">
         <v>4</v>
       </c>
-      <c r="G335">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8116,11 +7108,8 @@
       <c r="F336">
         <v>3</v>
       </c>
-      <c r="G336">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8139,11 +7128,8 @@
       <c r="F337">
         <v>1</v>
       </c>
-      <c r="G337">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8162,11 +7148,8 @@
       <c r="F338">
         <v>3</v>
       </c>
-      <c r="G338">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8185,11 +7168,8 @@
       <c r="F339">
         <v>3</v>
       </c>
-      <c r="G339">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8208,11 +7188,8 @@
       <c r="F340">
         <v>2</v>
       </c>
-      <c r="G340">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8231,11 +7208,8 @@
       <c r="F341">
         <v>4</v>
       </c>
-      <c r="G341">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8254,11 +7228,8 @@
       <c r="F342">
         <v>7</v>
       </c>
-      <c r="G342">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8277,11 +7248,8 @@
       <c r="F343">
         <v>3</v>
       </c>
-      <c r="G343">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8300,11 +7268,8 @@
       <c r="F344">
         <v>1</v>
       </c>
-      <c r="G344">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8323,11 +7288,8 @@
       <c r="F345">
         <v>1</v>
       </c>
-      <c r="G345">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8346,11 +7308,8 @@
       <c r="F346">
         <v>9</v>
       </c>
-      <c r="G346">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8369,11 +7328,8 @@
       <c r="F347">
         <v>1</v>
       </c>
-      <c r="G347">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8392,11 +7348,8 @@
       <c r="F348">
         <v>1</v>
       </c>
-      <c r="G348">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8415,11 +7368,8 @@
       <c r="F349">
         <v>1</v>
       </c>
-      <c r="G349">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8438,11 +7388,8 @@
       <c r="F350">
         <v>3</v>
       </c>
-      <c r="G350">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8461,11 +7408,8 @@
       <c r="F351">
         <v>7</v>
       </c>
-      <c r="G351">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8484,11 +7428,8 @@
       <c r="F352">
         <v>1</v>
       </c>
-      <c r="G352">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8507,11 +7448,8 @@
       <c r="F353">
         <v>3</v>
       </c>
-      <c r="G353">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8530,11 +7468,8 @@
       <c r="F354">
         <v>4</v>
       </c>
-      <c r="G354">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8553,11 +7488,8 @@
       <c r="F355">
         <v>4</v>
       </c>
-      <c r="G355">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8576,11 +7508,8 @@
       <c r="F356">
         <v>2</v>
       </c>
-      <c r="G356">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8599,11 +7528,8 @@
       <c r="F357">
         <v>2</v>
       </c>
-      <c r="G357">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8622,11 +7548,8 @@
       <c r="F358">
         <v>3</v>
       </c>
-      <c r="G358">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8645,11 +7568,8 @@
       <c r="F359">
         <v>7</v>
       </c>
-      <c r="G359">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8668,11 +7588,8 @@
       <c r="F360">
         <v>4</v>
       </c>
-      <c r="G360">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8691,11 +7608,8 @@
       <c r="F361">
         <v>3</v>
       </c>
-      <c r="G361">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8714,11 +7628,8 @@
       <c r="F362">
         <v>8</v>
       </c>
-      <c r="G362">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8737,11 +7648,8 @@
       <c r="F363">
         <v>5</v>
       </c>
-      <c r="G363">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8760,11 +7668,8 @@
       <c r="F364">
         <v>2</v>
       </c>
-      <c r="G364">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8783,11 +7688,8 @@
       <c r="F365">
         <v>2</v>
       </c>
-      <c r="G365">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8806,11 +7708,8 @@
       <c r="F366">
         <v>3</v>
       </c>
-      <c r="G366">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8829,11 +7728,8 @@
       <c r="F367">
         <v>2</v>
       </c>
-      <c r="G367">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8852,11 +7748,8 @@
       <c r="F368">
         <v>7</v>
       </c>
-      <c r="G368">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8875,11 +7768,8 @@
       <c r="F369">
         <v>8</v>
       </c>
-      <c r="G369">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8898,11 +7788,8 @@
       <c r="F370">
         <v>1</v>
       </c>
-      <c r="G370">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8921,11 +7808,8 @@
       <c r="F371">
         <v>2</v>
       </c>
-      <c r="G371">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8944,11 +7828,8 @@
       <c r="F372">
         <v>2</v>
       </c>
-      <c r="G372">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8967,11 +7848,8 @@
       <c r="F373">
         <v>1</v>
       </c>
-      <c r="G373">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8990,11 +7868,8 @@
       <c r="F374">
         <v>2</v>
       </c>
-      <c r="G374">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9013,11 +7888,8 @@
       <c r="F375">
         <v>2</v>
       </c>
-      <c r="G375">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9036,11 +7908,8 @@
       <c r="F376">
         <v>2</v>
       </c>
-      <c r="G376">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7">
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9059,11 +7928,8 @@
       <c r="F377">
         <v>1</v>
       </c>
-      <c r="G377">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9082,11 +7948,8 @@
       <c r="F378">
         <v>2</v>
       </c>
-      <c r="G378">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7">
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9105,11 +7968,8 @@
       <c r="F379">
         <v>2</v>
       </c>
-      <c r="G379">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7">
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9128,11 +7988,8 @@
       <c r="F380">
         <v>2</v>
       </c>
-      <c r="G380">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7">
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9151,11 +8008,8 @@
       <c r="F381">
         <v>3</v>
       </c>
-      <c r="G381">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7">
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9174,11 +8028,8 @@
       <c r="F382">
         <v>1</v>
       </c>
-      <c r="G382">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7">
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9197,11 +8048,8 @@
       <c r="F383">
         <v>7</v>
       </c>
-      <c r="G383">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7">
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9220,11 +8068,8 @@
       <c r="F384">
         <v>3</v>
       </c>
-      <c r="G384">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7">
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9243,11 +8088,8 @@
       <c r="F385">
         <v>1</v>
       </c>
-      <c r="G385">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7">
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9266,11 +8108,8 @@
       <c r="F386">
         <v>1</v>
       </c>
-      <c r="G386">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7">
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9289,11 +8128,8 @@
       <c r="F387">
         <v>1</v>
       </c>
-      <c r="G387">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7">
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9312,11 +8148,8 @@
       <c r="F388">
         <v>7</v>
       </c>
-      <c r="G388">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7">
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9335,11 +8168,8 @@
       <c r="F389">
         <v>3</v>
       </c>
-      <c r="G389">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7">
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9358,11 +8188,8 @@
       <c r="F390">
         <v>2</v>
       </c>
-      <c r="G390">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7">
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9381,11 +8208,8 @@
       <c r="F391">
         <v>2</v>
       </c>
-      <c r="G391">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9404,11 +8228,8 @@
       <c r="F392">
         <v>2</v>
       </c>
-      <c r="G392">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7">
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9427,11 +8248,8 @@
       <c r="F393">
         <v>7</v>
       </c>
-      <c r="G393">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7">
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9450,11 +8268,8 @@
       <c r="F394">
         <v>2</v>
       </c>
-      <c r="G394">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7">
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9473,11 +8288,8 @@
       <c r="F395">
         <v>1</v>
       </c>
-      <c r="G395">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7">
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9496,11 +8308,8 @@
       <c r="F396">
         <v>2</v>
       </c>
-      <c r="G396">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7">
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9519,11 +8328,8 @@
       <c r="F397">
         <v>2</v>
       </c>
-      <c r="G397">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7">
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9542,11 +8348,8 @@
       <c r="F398">
         <v>3</v>
       </c>
-      <c r="G398">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7">
+    </row>
+    <row r="399" spans="1:6">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9565,11 +8368,8 @@
       <c r="F399">
         <v>1</v>
       </c>
-      <c r="G399">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7">
+    </row>
+    <row r="400" spans="1:6">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9588,11 +8388,8 @@
       <c r="F400">
         <v>2</v>
       </c>
-      <c r="G400">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9611,11 +8408,8 @@
       <c r="F401">
         <v>1</v>
       </c>
-      <c r="G401">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9634,11 +8428,8 @@
       <c r="F402">
         <v>9</v>
       </c>
-      <c r="G402">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7">
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9657,11 +8448,8 @@
       <c r="F403">
         <v>1</v>
       </c>
-      <c r="G403">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7">
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9680,11 +8468,8 @@
       <c r="F404">
         <v>2</v>
       </c>
-      <c r="G404">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7">
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9703,11 +8488,8 @@
       <c r="F405">
         <v>1</v>
       </c>
-      <c r="G405">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7">
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9726,11 +8508,8 @@
       <c r="F406">
         <v>1</v>
       </c>
-      <c r="G406">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7">
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9749,11 +8528,8 @@
       <c r="F407">
         <v>2</v>
       </c>
-      <c r="G407">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7">
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9772,11 +8548,8 @@
       <c r="F408">
         <v>2</v>
       </c>
-      <c r="G408">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7">
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9795,11 +8568,8 @@
       <c r="F409">
         <v>2</v>
       </c>
-      <c r="G409">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7">
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9818,11 +8588,8 @@
       <c r="F410">
         <v>3</v>
       </c>
-      <c r="G410">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7">
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9841,11 +8608,8 @@
       <c r="F411">
         <v>2</v>
       </c>
-      <c r="G411">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7">
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9864,11 +8628,8 @@
       <c r="F412">
         <v>2</v>
       </c>
-      <c r="G412">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9887,11 +8648,8 @@
       <c r="F413">
         <v>2</v>
       </c>
-      <c r="G413">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9910,11 +8668,8 @@
       <c r="F414">
         <v>8</v>
       </c>
-      <c r="G414">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9933,11 +8688,8 @@
       <c r="F415">
         <v>3</v>
       </c>
-      <c r="G415">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9956,11 +8708,8 @@
       <c r="F416">
         <v>6</v>
       </c>
-      <c r="G416">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7">
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9979,11 +8728,8 @@
       <c r="F417">
         <v>3</v>
       </c>
-      <c r="G417">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7">
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10002,11 +8748,8 @@
       <c r="F418">
         <v>7</v>
       </c>
-      <c r="G418">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7">
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10025,11 +8768,8 @@
       <c r="F419">
         <v>2</v>
       </c>
-      <c r="G419">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7">
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10048,11 +8788,8 @@
       <c r="F420">
         <v>3</v>
       </c>
-      <c r="G420">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10071,11 +8808,8 @@
       <c r="F421">
         <v>1</v>
       </c>
-      <c r="G421">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10094,11 +8828,8 @@
       <c r="F422">
         <v>3</v>
       </c>
-      <c r="G422">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10117,11 +8848,8 @@
       <c r="F423">
         <v>8</v>
       </c>
-      <c r="G423">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7">
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10140,11 +8868,8 @@
       <c r="F424">
         <v>3</v>
       </c>
-      <c r="G424">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10163,11 +8888,8 @@
       <c r="F425">
         <v>2</v>
       </c>
-      <c r="G425">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10186,11 +8908,8 @@
       <c r="F426">
         <v>1</v>
       </c>
-      <c r="G426">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:7">
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10209,11 +8928,8 @@
       <c r="F427">
         <v>10</v>
       </c>
-      <c r="G427">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10232,11 +8948,8 @@
       <c r="F428">
         <v>1</v>
       </c>
-      <c r="G428">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7">
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10255,11 +8968,8 @@
       <c r="F429">
         <v>5</v>
       </c>
-      <c r="G429">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7">
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10278,11 +8988,8 @@
       <c r="F430">
         <v>2</v>
       </c>
-      <c r="G430">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7">
+    </row>
+    <row r="431" spans="1:6">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10301,11 +9008,8 @@
       <c r="F431">
         <v>2</v>
       </c>
-      <c r="G431">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7">
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10324,11 +9028,8 @@
       <c r="F432">
         <v>2</v>
       </c>
-      <c r="G432">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+    </row>
+    <row r="433" spans="1:6">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10347,11 +9048,8 @@
       <c r="F433">
         <v>3</v>
       </c>
-      <c r="G433">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7">
+    </row>
+    <row r="434" spans="1:6">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10370,11 +9068,8 @@
       <c r="F434">
         <v>2</v>
       </c>
-      <c r="G434">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+    </row>
+    <row r="435" spans="1:6">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10393,11 +9088,8 @@
       <c r="F435">
         <v>1</v>
       </c>
-      <c r="G435">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10416,11 +9108,8 @@
       <c r="F436">
         <v>4</v>
       </c>
-      <c r="G436">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10439,11 +9128,8 @@
       <c r="F437">
         <v>5</v>
       </c>
-      <c r="G437">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
+    </row>
+    <row r="438" spans="1:6">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10462,11 +9148,8 @@
       <c r="F438">
         <v>2</v>
       </c>
-      <c r="G438">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7">
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10485,11 +9168,8 @@
       <c r="F439">
         <v>1</v>
       </c>
-      <c r="G439">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:7">
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10508,11 +9188,8 @@
       <c r="F440">
         <v>1</v>
       </c>
-      <c r="G440">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:7">
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10531,11 +9208,8 @@
       <c r="F441">
         <v>1</v>
       </c>
-      <c r="G441">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
+    </row>
+    <row r="442" spans="1:6">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10554,11 +9228,8 @@
       <c r="F442">
         <v>10</v>
       </c>
-      <c r="G442">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10577,11 +9248,8 @@
       <c r="F443">
         <v>1</v>
       </c>
-      <c r="G443">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7">
+    </row>
+    <row r="444" spans="1:6">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10600,11 +9268,8 @@
       <c r="F444">
         <v>1</v>
       </c>
-      <c r="G444">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+    </row>
+    <row r="445" spans="1:6">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10623,11 +9288,8 @@
       <c r="F445">
         <v>1</v>
       </c>
-      <c r="G445">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7">
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10646,11 +9308,8 @@
       <c r="F446">
         <v>2</v>
       </c>
-      <c r="G446">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7">
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10669,11 +9328,8 @@
       <c r="F447">
         <v>1</v>
       </c>
-      <c r="G447">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7">
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10692,11 +9348,8 @@
       <c r="F448">
         <v>1</v>
       </c>
-      <c r="G448">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
+    </row>
+    <row r="449" spans="1:6">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10715,11 +9368,8 @@
       <c r="F449">
         <v>1</v>
       </c>
-      <c r="G449">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10738,11 +9388,8 @@
       <c r="F450">
         <v>1</v>
       </c>
-      <c r="G450">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10761,11 +9408,8 @@
       <c r="F451">
         <v>8</v>
       </c>
-      <c r="G451">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
+    </row>
+    <row r="452" spans="1:6">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10784,11 +9428,8 @@
       <c r="F452">
         <v>2</v>
       </c>
-      <c r="G452">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7">
+    </row>
+    <row r="453" spans="1:6">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10807,11 +9448,8 @@
       <c r="F453">
         <v>1</v>
       </c>
-      <c r="G453">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10830,11 +9468,8 @@
       <c r="F454">
         <v>1</v>
       </c>
-      <c r="G454">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7">
+    </row>
+    <row r="455" spans="1:6">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10853,11 +9488,8 @@
       <c r="F455">
         <v>10</v>
       </c>
-      <c r="G455">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7">
+    </row>
+    <row r="456" spans="1:6">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10876,11 +9508,8 @@
       <c r="F456">
         <v>1</v>
       </c>
-      <c r="G456">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:7">
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10899,11 +9528,8 @@
       <c r="F457">
         <v>1</v>
       </c>
-      <c r="G457">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7">
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10922,11 +9548,8 @@
       <c r="F458">
         <v>8</v>
       </c>
-      <c r="G458">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="459" spans="1:7">
+    </row>
+    <row r="459" spans="1:6">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10945,11 +9568,8 @@
       <c r="F459">
         <v>10</v>
       </c>
-      <c r="G459">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
+    </row>
+    <row r="460" spans="1:6">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10968,11 +9588,8 @@
       <c r="F460">
         <v>1</v>
       </c>
-      <c r="G460">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
+    </row>
+    <row r="461" spans="1:6">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10991,11 +9608,8 @@
       <c r="F461">
         <v>1</v>
       </c>
-      <c r="G461">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
+    </row>
+    <row r="462" spans="1:6">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11014,11 +9628,8 @@
       <c r="F462">
         <v>1</v>
       </c>
-      <c r="G462">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11037,11 +9648,8 @@
       <c r="F463">
         <v>1</v>
       </c>
-      <c r="G463">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
+    </row>
+    <row r="464" spans="1:6">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11060,11 +9668,8 @@
       <c r="F464">
         <v>1</v>
       </c>
-      <c r="G464">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7">
+    </row>
+    <row r="465" spans="1:6">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11083,11 +9688,8 @@
       <c r="F465">
         <v>1</v>
       </c>
-      <c r="G465">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" spans="1:7">
+    </row>
+    <row r="466" spans="1:6">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11106,11 +9708,8 @@
       <c r="F466">
         <v>1</v>
       </c>
-      <c r="G466">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:7">
+    </row>
+    <row r="467" spans="1:6">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11129,11 +9728,8 @@
       <c r="F467">
         <v>7</v>
       </c>
-      <c r="G467">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
+    </row>
+    <row r="468" spans="1:6">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11152,11 +9748,8 @@
       <c r="F468">
         <v>9</v>
       </c>
-      <c r="G468">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
+    </row>
+    <row r="469" spans="1:6">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11175,11 +9768,8 @@
       <c r="F469">
         <v>7</v>
       </c>
-      <c r="G469">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="470" spans="1:7">
+    </row>
+    <row r="470" spans="1:6">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11198,11 +9788,8 @@
       <c r="F470">
         <v>1</v>
       </c>
-      <c r="G470">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:7">
+    </row>
+    <row r="471" spans="1:6">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11221,11 +9808,8 @@
       <c r="F471">
         <v>2</v>
       </c>
-      <c r="G471">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
+    </row>
+    <row r="472" spans="1:6">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11244,11 +9828,8 @@
       <c r="F472">
         <v>2</v>
       </c>
-      <c r="G472">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
+    </row>
+    <row r="473" spans="1:6">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11267,11 +9848,8 @@
       <c r="F473">
         <v>1</v>
       </c>
-      <c r="G473">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+    </row>
+    <row r="474" spans="1:6">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11290,11 +9868,8 @@
       <c r="F474">
         <v>1</v>
       </c>
-      <c r="G474">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
+    </row>
+    <row r="475" spans="1:6">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11313,11 +9888,8 @@
       <c r="F475">
         <v>1</v>
       </c>
-      <c r="G475">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="476" spans="1:7">
+    </row>
+    <row r="476" spans="1:6">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11336,11 +9908,8 @@
       <c r="F476">
         <v>1</v>
       </c>
-      <c r="G476">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
+    </row>
+    <row r="477" spans="1:6">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11359,11 +9928,8 @@
       <c r="F477">
         <v>1</v>
       </c>
-      <c r="G477">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478" spans="1:7">
+    </row>
+    <row r="478" spans="1:6">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11382,11 +9948,8 @@
       <c r="F478">
         <v>1</v>
       </c>
-      <c r="G478">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7">
+    </row>
+    <row r="479" spans="1:6">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11405,11 +9968,8 @@
       <c r="F479">
         <v>1</v>
       </c>
-      <c r="G479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
+    </row>
+    <row r="480" spans="1:6">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11428,11 +9988,8 @@
       <c r="F480">
         <v>1</v>
       </c>
-      <c r="G480">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="481" spans="1:7">
+    </row>
+    <row r="481" spans="1:6">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11451,11 +10008,8 @@
       <c r="F481">
         <v>7</v>
       </c>
-      <c r="G481">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="482" spans="1:7">
+    </row>
+    <row r="482" spans="1:6">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11474,11 +10028,8 @@
       <c r="F482">
         <v>1</v>
       </c>
-      <c r="G482">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7">
+    </row>
+    <row r="483" spans="1:6">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11497,11 +10048,8 @@
       <c r="F483">
         <v>1</v>
       </c>
-      <c r="G483">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
+    </row>
+    <row r="484" spans="1:6">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11520,11 +10068,8 @@
       <c r="F484">
         <v>10</v>
       </c>
-      <c r="G484">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="485" spans="1:7">
+    </row>
+    <row r="485" spans="1:6">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11543,11 +10088,8 @@
       <c r="F485">
         <v>9</v>
       </c>
-      <c r="G485">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7">
+    </row>
+    <row r="486" spans="1:6">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11566,11 +10108,8 @@
       <c r="F486">
         <v>1</v>
       </c>
-      <c r="G486">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7">
+    </row>
+    <row r="487" spans="1:6">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11589,11 +10128,8 @@
       <c r="F487">
         <v>1</v>
       </c>
-      <c r="G487">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7">
+    </row>
+    <row r="488" spans="1:6">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11612,11 +10148,8 @@
       <c r="F488">
         <v>2</v>
       </c>
-      <c r="G488">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+    </row>
+    <row r="489" spans="1:6">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11635,11 +10168,8 @@
       <c r="F489">
         <v>8</v>
       </c>
-      <c r="G489">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7">
+    </row>
+    <row r="490" spans="1:6">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11658,11 +10188,8 @@
       <c r="F490">
         <v>3</v>
       </c>
-      <c r="G490">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
+    </row>
+    <row r="491" spans="1:6">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11681,11 +10208,8 @@
       <c r="F491">
         <v>4</v>
       </c>
-      <c r="G491">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="492" spans="1:7">
+    </row>
+    <row r="492" spans="1:6">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11704,11 +10228,8 @@
       <c r="F492">
         <v>1</v>
       </c>
-      <c r="G492">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+    </row>
+    <row r="493" spans="1:6">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11727,11 +10248,8 @@
       <c r="F493">
         <v>7</v>
       </c>
-      <c r="G493">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7">
+    </row>
+    <row r="494" spans="1:6">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11750,11 +10268,8 @@
       <c r="F494">
         <v>2</v>
       </c>
-      <c r="G494">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="495" spans="1:7">
+    </row>
+    <row r="495" spans="1:6">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11773,11 +10288,8 @@
       <c r="F495">
         <v>6</v>
       </c>
-      <c r="G495">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7">
+    </row>
+    <row r="496" spans="1:6">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11796,11 +10308,8 @@
       <c r="F496">
         <v>2</v>
       </c>
-      <c r="G496">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7">
+    </row>
+    <row r="497" spans="1:6">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11819,11 +10328,8 @@
       <c r="F497">
         <v>2</v>
       </c>
-      <c r="G497">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7">
+    </row>
+    <row r="498" spans="1:6">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11842,11 +10348,8 @@
       <c r="F498">
         <v>1</v>
       </c>
-      <c r="G498">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7">
+    </row>
+    <row r="499" spans="1:6">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11865,11 +10368,8 @@
       <c r="F499">
         <v>1</v>
       </c>
-      <c r="G499">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="500" spans="1:7">
+    </row>
+    <row r="500" spans="1:6">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11888,11 +10388,8 @@
       <c r="F500">
         <v>2</v>
       </c>
-      <c r="G500">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="501" spans="1:7">
+    </row>
+    <row r="501" spans="1:6">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11911,11 +10408,8 @@
       <c r="F501">
         <v>2</v>
       </c>
-      <c r="G501">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="502" spans="1:7">
+    </row>
+    <row r="502" spans="1:6">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11934,11 +10428,8 @@
       <c r="F502">
         <v>3</v>
       </c>
-      <c r="G502">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="503" spans="1:7">
+    </row>
+    <row r="503" spans="1:6">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11957,11 +10448,8 @@
       <c r="F503">
         <v>2</v>
       </c>
-      <c r="G503">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="504" spans="1:7">
+    </row>
+    <row r="504" spans="1:6">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11980,11 +10468,8 @@
       <c r="F504">
         <v>2</v>
       </c>
-      <c r="G504">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="505" spans="1:7">
+    </row>
+    <row r="505" spans="1:6">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -12003,11 +10488,8 @@
       <c r="F505">
         <v>3</v>
       </c>
-      <c r="G505">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7">
+    </row>
+    <row r="506" spans="1:6">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -12026,11 +10508,8 @@
       <c r="F506">
         <v>1</v>
       </c>
-      <c r="G506">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7">
+    </row>
+    <row r="507" spans="1:6">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -12049,11 +10528,8 @@
       <c r="F507">
         <v>1</v>
       </c>
-      <c r="G507">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7">
+    </row>
+    <row r="508" spans="1:6">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -12072,11 +10548,8 @@
       <c r="F508">
         <v>4</v>
       </c>
-      <c r="G508">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+    </row>
+    <row r="509" spans="1:6">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -12095,11 +10568,8 @@
       <c r="F509">
         <v>1</v>
       </c>
-      <c r="G509">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="510" spans="1:7">
+    </row>
+    <row r="510" spans="1:6">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -12118,11 +10588,8 @@
       <c r="F510">
         <v>1</v>
       </c>
-      <c r="G510">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+    </row>
+    <row r="511" spans="1:6">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -12141,11 +10608,8 @@
       <c r="F511">
         <v>1</v>
       </c>
-      <c r="G511">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="512" spans="1:7">
+    </row>
+    <row r="512" spans="1:6">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -12164,11 +10628,8 @@
       <c r="F512">
         <v>1</v>
       </c>
-      <c r="G512">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="513" spans="1:7">
+    </row>
+    <row r="513" spans="1:6">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12187,11 +10648,8 @@
       <c r="F513">
         <v>2</v>
       </c>
-      <c r="G513">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="514" spans="1:7">
+    </row>
+    <row r="514" spans="1:6">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -12210,11 +10668,8 @@
       <c r="F514">
         <v>1</v>
       </c>
-      <c r="G514">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="515" spans="1:7">
+    </row>
+    <row r="515" spans="1:6">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -12233,11 +10688,8 @@
       <c r="F515">
         <v>2</v>
       </c>
-      <c r="G515">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="516" spans="1:7">
+    </row>
+    <row r="516" spans="1:6">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12256,11 +10708,8 @@
       <c r="F516">
         <v>8</v>
       </c>
-      <c r="G516">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7">
+    </row>
+    <row r="517" spans="1:6">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12279,11 +10728,8 @@
       <c r="F517">
         <v>9</v>
       </c>
-      <c r="G517">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="518" spans="1:7">
+    </row>
+    <row r="518" spans="1:6">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -12302,11 +10748,8 @@
       <c r="F518">
         <v>1</v>
       </c>
-      <c r="G518">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="519" spans="1:7">
+    </row>
+    <row r="519" spans="1:6">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12325,11 +10768,8 @@
       <c r="F519">
         <v>2</v>
       </c>
-      <c r="G519">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="520" spans="1:7">
+    </row>
+    <row r="520" spans="1:6">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -12348,11 +10788,8 @@
       <c r="F520">
         <v>1</v>
       </c>
-      <c r="G520">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="521" spans="1:7">
+    </row>
+    <row r="521" spans="1:6">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -12371,11 +10808,8 @@
       <c r="F521">
         <v>9</v>
       </c>
-      <c r="G521">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="522" spans="1:7">
+    </row>
+    <row r="522" spans="1:6">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12394,11 +10828,8 @@
       <c r="F522">
         <v>1</v>
       </c>
-      <c r="G522">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="523" spans="1:7">
+    </row>
+    <row r="523" spans="1:6">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -12417,11 +10848,8 @@
       <c r="F523">
         <v>1</v>
       </c>
-      <c r="G523">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="524" spans="1:7">
+    </row>
+    <row r="524" spans="1:6">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -12440,11 +10868,8 @@
       <c r="F524">
         <v>7</v>
       </c>
-      <c r="G524">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="525" spans="1:7">
+    </row>
+    <row r="525" spans="1:6">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -12463,11 +10888,8 @@
       <c r="F525">
         <v>5</v>
       </c>
-      <c r="G525">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="526" spans="1:7">
+    </row>
+    <row r="526" spans="1:6">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -12486,11 +10908,8 @@
       <c r="F526">
         <v>2</v>
       </c>
-      <c r="G526">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="527" spans="1:7">
+    </row>
+    <row r="527" spans="1:6">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -12509,11 +10928,8 @@
       <c r="F527">
         <v>1</v>
       </c>
-      <c r="G527">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7">
+    </row>
+    <row r="528" spans="1:6">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -12532,11 +10948,8 @@
       <c r="F528">
         <v>1</v>
       </c>
-      <c r="G528">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="529" spans="1:7">
+    </row>
+    <row r="529" spans="1:6">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -12555,11 +10968,8 @@
       <c r="F529">
         <v>3</v>
       </c>
-      <c r="G529">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="530" spans="1:7">
+    </row>
+    <row r="530" spans="1:6">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -12578,11 +10988,8 @@
       <c r="F530">
         <v>1</v>
       </c>
-      <c r="G530">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="531" spans="1:7">
+    </row>
+    <row r="531" spans="1:6">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -12601,11 +11008,8 @@
       <c r="F531">
         <v>2</v>
       </c>
-      <c r="G531">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="532" spans="1:7">
+    </row>
+    <row r="532" spans="1:6">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -12624,11 +11028,8 @@
       <c r="F532">
         <v>6</v>
       </c>
-      <c r="G532">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="533" spans="1:7">
+    </row>
+    <row r="533" spans="1:6">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -12647,11 +11048,8 @@
       <c r="F533">
         <v>2</v>
       </c>
-      <c r="G533">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="534" spans="1:7">
+    </row>
+    <row r="534" spans="1:6">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -12670,11 +11068,8 @@
       <c r="F534">
         <v>3</v>
       </c>
-      <c r="G534">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="535" spans="1:7">
+    </row>
+    <row r="535" spans="1:6">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -12693,11 +11088,8 @@
       <c r="F535">
         <v>2</v>
       </c>
-      <c r="G535">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="536" spans="1:7">
+    </row>
+    <row r="536" spans="1:6">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -12716,11 +11108,8 @@
       <c r="F536">
         <v>2</v>
       </c>
-      <c r="G536">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="537" spans="1:7">
+    </row>
+    <row r="537" spans="1:6">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -12739,11 +11128,8 @@
       <c r="F537">
         <v>3</v>
       </c>
-      <c r="G537">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7">
+    </row>
+    <row r="538" spans="1:6">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -12762,11 +11148,8 @@
       <c r="F538">
         <v>3</v>
       </c>
-      <c r="G538">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="539" spans="1:7">
+    </row>
+    <row r="539" spans="1:6">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -12785,11 +11168,8 @@
       <c r="F539">
         <v>3</v>
       </c>
-      <c r="G539">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="540" spans="1:7">
+    </row>
+    <row r="540" spans="1:6">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -12808,11 +11188,8 @@
       <c r="F540">
         <v>2</v>
       </c>
-      <c r="G540">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="541" spans="1:7">
+    </row>
+    <row r="541" spans="1:6">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -12831,11 +11208,8 @@
       <c r="F541">
         <v>2</v>
       </c>
-      <c r="G541">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7">
+    </row>
+    <row r="542" spans="1:6">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -12854,11 +11228,8 @@
       <c r="F542">
         <v>2</v>
       </c>
-      <c r="G542">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="543" spans="1:7">
+    </row>
+    <row r="543" spans="1:6">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -12877,11 +11248,8 @@
       <c r="F543">
         <v>1</v>
       </c>
-      <c r="G543">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="544" spans="1:7">
+    </row>
+    <row r="544" spans="1:6">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -12900,11 +11268,8 @@
       <c r="F544">
         <v>1</v>
       </c>
-      <c r="G544">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="545" spans="1:7">
+    </row>
+    <row r="545" spans="1:6">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -12923,11 +11288,8 @@
       <c r="F545">
         <v>2</v>
       </c>
-      <c r="G545">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="546" spans="1:7">
+    </row>
+    <row r="546" spans="1:6">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -12946,11 +11308,8 @@
       <c r="F546">
         <v>2</v>
       </c>
-      <c r="G546">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="547" spans="1:7">
+    </row>
+    <row r="547" spans="1:6">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -12969,11 +11328,8 @@
       <c r="F547">
         <v>2</v>
       </c>
-      <c r="G547">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="548" spans="1:7">
+    </row>
+    <row r="548" spans="1:6">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -12992,11 +11348,8 @@
       <c r="F548">
         <v>7</v>
       </c>
-      <c r="G548">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7">
+    </row>
+    <row r="549" spans="1:6">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -13015,11 +11368,8 @@
       <c r="F549">
         <v>1</v>
       </c>
-      <c r="G549">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="550" spans="1:7">
+    </row>
+    <row r="550" spans="1:6">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -13038,11 +11388,8 @@
       <c r="F550">
         <v>1</v>
       </c>
-      <c r="G550">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="551" spans="1:7">
+    </row>
+    <row r="551" spans="1:6">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -13061,11 +11408,8 @@
       <c r="F551">
         <v>7</v>
       </c>
-      <c r="G551">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="552" spans="1:7">
+    </row>
+    <row r="552" spans="1:6">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -13084,11 +11428,8 @@
       <c r="F552">
         <v>2</v>
       </c>
-      <c r="G552">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="553" spans="1:7">
+    </row>
+    <row r="553" spans="1:6">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -13107,11 +11448,8 @@
       <c r="F553">
         <v>3</v>
       </c>
-      <c r="G553">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="554" spans="1:7">
+    </row>
+    <row r="554" spans="1:6">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -13130,11 +11468,8 @@
       <c r="F554">
         <v>4</v>
       </c>
-      <c r="G554">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="555" spans="1:7">
+    </row>
+    <row r="555" spans="1:6">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -13153,11 +11488,8 @@
       <c r="F555">
         <v>2</v>
       </c>
-      <c r="G555">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="556" spans="1:7">
+    </row>
+    <row r="556" spans="1:6">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -13176,11 +11508,8 @@
       <c r="F556">
         <v>1</v>
       </c>
-      <c r="G556">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="557" spans="1:7">
+    </row>
+    <row r="557" spans="1:6">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -13199,11 +11528,8 @@
       <c r="F557">
         <v>4</v>
       </c>
-      <c r="G557">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="558" spans="1:7">
+    </row>
+    <row r="558" spans="1:6">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -13222,11 +11548,8 @@
       <c r="F558">
         <v>2</v>
       </c>
-      <c r="G558">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="559" spans="1:7">
+    </row>
+    <row r="559" spans="1:6">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -13245,11 +11568,8 @@
       <c r="F559">
         <v>1</v>
       </c>
-      <c r="G559">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7">
+    </row>
+    <row r="560" spans="1:6">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -13268,11 +11588,8 @@
       <c r="F560">
         <v>2</v>
       </c>
-      <c r="G560">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="561" spans="1:7">
+    </row>
+    <row r="561" spans="1:6">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -13291,11 +11608,8 @@
       <c r="F561">
         <v>2</v>
       </c>
-      <c r="G561">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="562" spans="1:7">
+    </row>
+    <row r="562" spans="1:6">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -13314,11 +11628,8 @@
       <c r="F562">
         <v>3</v>
       </c>
-      <c r="G562">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="563" spans="1:7">
+    </row>
+    <row r="563" spans="1:6">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -13337,11 +11648,8 @@
       <c r="F563">
         <v>3</v>
       </c>
-      <c r="G563">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7">
+    </row>
+    <row r="564" spans="1:6">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -13360,11 +11668,8 @@
       <c r="F564">
         <v>3</v>
       </c>
-      <c r="G564">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="565" spans="1:7">
+    </row>
+    <row r="565" spans="1:6">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -13383,11 +11688,8 @@
       <c r="F565">
         <v>2</v>
       </c>
-      <c r="G565">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="566" spans="1:7">
+    </row>
+    <row r="566" spans="1:6">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -13406,11 +11708,8 @@
       <c r="F566">
         <v>3</v>
       </c>
-      <c r="G566">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="567" spans="1:7">
+    </row>
+    <row r="567" spans="1:6">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -13429,11 +11728,8 @@
       <c r="F567">
         <v>10</v>
       </c>
-      <c r="G567">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="568" spans="1:7">
+    </row>
+    <row r="568" spans="1:6">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -13452,11 +11748,8 @@
       <c r="F568">
         <v>3</v>
       </c>
-      <c r="G568">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="569" spans="1:7">
+    </row>
+    <row r="569" spans="1:6">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -13475,11 +11768,8 @@
       <c r="F569">
         <v>2</v>
       </c>
-      <c r="G569">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="570" spans="1:7">
+    </row>
+    <row r="570" spans="1:6">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -13498,11 +11788,8 @@
       <c r="F570">
         <v>2</v>
       </c>
-      <c r="G570">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="571" spans="1:7">
+    </row>
+    <row r="571" spans="1:6">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -13521,11 +11808,8 @@
       <c r="F571">
         <v>10</v>
       </c>
-      <c r="G571">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="572" spans="1:7">
+    </row>
+    <row r="572" spans="1:6">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -13544,11 +11828,8 @@
       <c r="F572">
         <v>8</v>
       </c>
-      <c r="G572">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="573" spans="1:7">
+    </row>
+    <row r="573" spans="1:6">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -13567,11 +11848,8 @@
       <c r="F573">
         <v>9</v>
       </c>
-      <c r="G573">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="574" spans="1:7">
+    </row>
+    <row r="574" spans="1:6">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -13590,11 +11868,8 @@
       <c r="F574">
         <v>2</v>
       </c>
-      <c r="G574">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:7">
+    </row>
+    <row r="575" spans="1:6">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -13613,11 +11888,8 @@
       <c r="F575">
         <v>2</v>
       </c>
-      <c r="G575">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="576" spans="1:7">
+    </row>
+    <row r="576" spans="1:6">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -13636,11 +11908,8 @@
       <c r="F576">
         <v>7</v>
       </c>
-      <c r="G576">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="577" spans="1:7">
+    </row>
+    <row r="577" spans="1:6">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -13659,11 +11928,8 @@
       <c r="F577">
         <v>3</v>
       </c>
-      <c r="G577">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="578" spans="1:7">
+    </row>
+    <row r="578" spans="1:6">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -13682,11 +11948,8 @@
       <c r="F578">
         <v>2</v>
       </c>
-      <c r="G578">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="579" spans="1:7">
+    </row>
+    <row r="579" spans="1:6">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -13705,11 +11968,8 @@
       <c r="F579">
         <v>2</v>
       </c>
-      <c r="G579">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="580" spans="1:7">
+    </row>
+    <row r="580" spans="1:6">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -13728,11 +11988,8 @@
       <c r="F580">
         <v>2</v>
       </c>
-      <c r="G580">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7">
+    </row>
+    <row r="581" spans="1:6">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -13751,11 +12008,8 @@
       <c r="F581">
         <v>3</v>
       </c>
-      <c r="G581">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7">
+    </row>
+    <row r="582" spans="1:6">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -13774,11 +12028,8 @@
       <c r="F582">
         <v>2</v>
       </c>
-      <c r="G582">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="583" spans="1:7">
+    </row>
+    <row r="583" spans="1:6">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -13797,11 +12048,8 @@
       <c r="F583">
         <v>7</v>
       </c>
-      <c r="G583">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="584" spans="1:7">
+    </row>
+    <row r="584" spans="1:6">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -13820,11 +12068,8 @@
       <c r="F584">
         <v>6</v>
       </c>
-      <c r="G584">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="585" spans="1:7">
+    </row>
+    <row r="585" spans="1:6">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -13843,11 +12088,8 @@
       <c r="F585">
         <v>1</v>
       </c>
-      <c r="G585">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="586" spans="1:7">
+    </row>
+    <row r="586" spans="1:6">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -13866,11 +12108,8 @@
       <c r="F586">
         <v>1</v>
       </c>
-      <c r="G586">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="587" spans="1:7">
+    </row>
+    <row r="587" spans="1:6">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -13889,11 +12128,8 @@
       <c r="F587">
         <v>1</v>
       </c>
-      <c r="G587">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="588" spans="1:7">
+    </row>
+    <row r="588" spans="1:6">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -13912,11 +12148,8 @@
       <c r="F588">
         <v>10</v>
       </c>
-      <c r="G588">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="589" spans="1:7">
+    </row>
+    <row r="589" spans="1:6">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -13935,11 +12168,8 @@
       <c r="F589">
         <v>2</v>
       </c>
-      <c r="G589">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="590" spans="1:7">
+    </row>
+    <row r="590" spans="1:6">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -13958,11 +12188,8 @@
       <c r="F590">
         <v>4</v>
       </c>
-      <c r="G590">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7">
+    </row>
+    <row r="591" spans="1:6">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -13981,11 +12208,8 @@
       <c r="F591">
         <v>1</v>
       </c>
-      <c r="G591">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="592" spans="1:7">
+    </row>
+    <row r="592" spans="1:6">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -14004,11 +12228,8 @@
       <c r="F592">
         <v>10</v>
       </c>
-      <c r="G592">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="593" spans="1:7">
+    </row>
+    <row r="593" spans="1:6">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -14027,11 +12248,8 @@
       <c r="F593">
         <v>7</v>
       </c>
-      <c r="G593">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="594" spans="1:7">
+    </row>
+    <row r="594" spans="1:6">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -14050,11 +12268,8 @@
       <c r="F594">
         <v>4</v>
       </c>
-      <c r="G594">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="595" spans="1:7">
+    </row>
+    <row r="595" spans="1:6">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -14073,11 +12288,8 @@
       <c r="F595">
         <v>1</v>
       </c>
-      <c r="G595">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="596" spans="1:7">
+    </row>
+    <row r="596" spans="1:6">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -14096,11 +12308,8 @@
       <c r="F596">
         <v>7</v>
       </c>
-      <c r="G596">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="597" spans="1:7">
+    </row>
+    <row r="597" spans="1:6">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -14119,11 +12328,8 @@
       <c r="F597">
         <v>2</v>
       </c>
-      <c r="G597">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="598" spans="1:7">
+    </row>
+    <row r="598" spans="1:6">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -14142,11 +12348,8 @@
       <c r="F598">
         <v>2</v>
       </c>
-      <c r="G598">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="599" spans="1:7">
+    </row>
+    <row r="599" spans="1:6">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -14165,11 +12368,8 @@
       <c r="F599">
         <v>3</v>
       </c>
-      <c r="G599">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7">
+    </row>
+    <row r="600" spans="1:6">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -14188,11 +12388,8 @@
       <c r="F600">
         <v>2</v>
       </c>
-      <c r="G600">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="601" spans="1:7">
+    </row>
+    <row r="601" spans="1:6">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -14211,11 +12408,8 @@
       <c r="F601">
         <v>1</v>
       </c>
-      <c r="G601">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="602" spans="1:7">
+    </row>
+    <row r="602" spans="1:6">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -14234,11 +12428,8 @@
       <c r="F602">
         <v>2</v>
       </c>
-      <c r="G602">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="603" spans="1:7">
+    </row>
+    <row r="603" spans="1:6">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -14257,11 +12448,8 @@
       <c r="F603">
         <v>2</v>
       </c>
-      <c r="G603">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="604" spans="1:7">
+    </row>
+    <row r="604" spans="1:6">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -14280,11 +12468,8 @@
       <c r="F604">
         <v>2</v>
       </c>
-      <c r="G604">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="605" spans="1:7">
+    </row>
+    <row r="605" spans="1:6">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -14303,11 +12488,8 @@
       <c r="F605">
         <v>8</v>
       </c>
-      <c r="G605">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="606" spans="1:7">
+    </row>
+    <row r="606" spans="1:6">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -14326,11 +12508,8 @@
       <c r="F606">
         <v>8</v>
       </c>
-      <c r="G606">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="607" spans="1:7">
+    </row>
+    <row r="607" spans="1:6">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -14349,11 +12528,8 @@
       <c r="F607">
         <v>7</v>
       </c>
-      <c r="G607">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="608" spans="1:7">
+    </row>
+    <row r="608" spans="1:6">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -14372,11 +12548,8 @@
       <c r="F608">
         <v>1</v>
       </c>
-      <c r="G608">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="609" spans="1:7">
+    </row>
+    <row r="609" spans="1:6">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -14395,11 +12568,8 @@
       <c r="F609">
         <v>1</v>
       </c>
-      <c r="G609">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="610" spans="1:7">
+    </row>
+    <row r="610" spans="1:6">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -14418,11 +12588,8 @@
       <c r="F610">
         <v>10</v>
       </c>
-      <c r="G610">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="611" spans="1:7">
+    </row>
+    <row r="611" spans="1:6">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -14441,11 +12608,8 @@
       <c r="F611">
         <v>1</v>
       </c>
-      <c r="G611">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="612" spans="1:7">
+    </row>
+    <row r="612" spans="1:6">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -14464,11 +12628,8 @@
       <c r="F612">
         <v>7</v>
       </c>
-      <c r="G612">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="613" spans="1:7">
+    </row>
+    <row r="613" spans="1:6">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -14487,11 +12648,8 @@
       <c r="F613">
         <v>8</v>
       </c>
-      <c r="G613">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="614" spans="1:7">
+    </row>
+    <row r="614" spans="1:6">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -14510,11 +12668,8 @@
       <c r="F614">
         <v>10</v>
       </c>
-      <c r="G614">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7">
+    </row>
+    <row r="615" spans="1:6">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -14533,11 +12688,8 @@
       <c r="F615">
         <v>2</v>
       </c>
-      <c r="G615">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="616" spans="1:7">
+    </row>
+    <row r="616" spans="1:6">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -14556,11 +12708,8 @@
       <c r="F616">
         <v>2</v>
       </c>
-      <c r="G616">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7">
+    </row>
+    <row r="617" spans="1:6">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -14579,11 +12728,8 @@
       <c r="F617">
         <v>2</v>
       </c>
-      <c r="G617">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="618" spans="1:7">
+    </row>
+    <row r="618" spans="1:6">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -14602,11 +12748,8 @@
       <c r="F618">
         <v>2</v>
       </c>
-      <c r="G618">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="619" spans="1:7">
+    </row>
+    <row r="619" spans="1:6">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -14625,11 +12768,8 @@
       <c r="F619">
         <v>1</v>
       </c>
-      <c r="G619">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="620" spans="1:7">
+    </row>
+    <row r="620" spans="1:6">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -14648,11 +12788,8 @@
       <c r="F620">
         <v>2</v>
       </c>
-      <c r="G620">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="621" spans="1:7">
+    </row>
+    <row r="621" spans="1:6">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -14671,11 +12808,8 @@
       <c r="F621">
         <v>2</v>
       </c>
-      <c r="G621">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="622" spans="1:7">
+    </row>
+    <row r="622" spans="1:6">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -14694,11 +12828,8 @@
       <c r="F622">
         <v>2</v>
       </c>
-      <c r="G622">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7">
+    </row>
+    <row r="623" spans="1:6">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -14717,11 +12848,8 @@
       <c r="F623">
         <v>6</v>
       </c>
-      <c r="G623">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7">
+    </row>
+    <row r="624" spans="1:6">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -14740,11 +12868,8 @@
       <c r="F624">
         <v>2</v>
       </c>
-      <c r="G624">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="625" spans="1:7">
+    </row>
+    <row r="625" spans="1:6">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -14763,11 +12888,8 @@
       <c r="F625">
         <v>1</v>
       </c>
-      <c r="G625">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="626" spans="1:7">
+    </row>
+    <row r="626" spans="1:6">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -14786,11 +12908,8 @@
       <c r="F626">
         <v>2</v>
       </c>
-      <c r="G626">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="627" spans="1:7">
+    </row>
+    <row r="627" spans="1:6">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -14809,11 +12928,8 @@
       <c r="F627">
         <v>1</v>
       </c>
-      <c r="G627">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="628" spans="1:7">
+    </row>
+    <row r="628" spans="1:6">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -14832,11 +12948,8 @@
       <c r="F628">
         <v>7</v>
       </c>
-      <c r="G628">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="629" spans="1:7">
+    </row>
+    <row r="629" spans="1:6">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -14855,11 +12968,8 @@
       <c r="F629">
         <v>1</v>
       </c>
-      <c r="G629">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="630" spans="1:7">
+    </row>
+    <row r="630" spans="1:6">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -14878,11 +12988,8 @@
       <c r="F630">
         <v>1</v>
       </c>
-      <c r="G630">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="631" spans="1:7">
+    </row>
+    <row r="631" spans="1:6">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -14901,11 +13008,8 @@
       <c r="F631">
         <v>1</v>
       </c>
-      <c r="G631">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="632" spans="1:7">
+    </row>
+    <row r="632" spans="1:6">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -14924,11 +13028,8 @@
       <c r="F632">
         <v>1</v>
       </c>
-      <c r="G632">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="633" spans="1:7">
+    </row>
+    <row r="633" spans="1:6">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -14947,11 +13048,8 @@
       <c r="F633">
         <v>2</v>
       </c>
-      <c r="G633">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="634" spans="1:7">
+    </row>
+    <row r="634" spans="1:6">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -14970,11 +13068,8 @@
       <c r="F634">
         <v>1</v>
       </c>
-      <c r="G634">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="635" spans="1:7">
+    </row>
+    <row r="635" spans="1:6">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -14993,11 +13088,8 @@
       <c r="F635">
         <v>5</v>
       </c>
-      <c r="G635">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="636" spans="1:7">
+    </row>
+    <row r="636" spans="1:6">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -15016,11 +13108,8 @@
       <c r="F636">
         <v>1</v>
       </c>
-      <c r="G636">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="637" spans="1:7">
+    </row>
+    <row r="637" spans="1:6">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -15039,11 +13128,8 @@
       <c r="F637">
         <v>1</v>
       </c>
-      <c r="G637">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="638" spans="1:7">
+    </row>
+    <row r="638" spans="1:6">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -15062,11 +13148,8 @@
       <c r="F638">
         <v>10</v>
       </c>
-      <c r="G638">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="639" spans="1:7">
+    </row>
+    <row r="639" spans="1:6">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -15085,11 +13168,8 @@
       <c r="F639">
         <v>2</v>
       </c>
-      <c r="G639">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="640" spans="1:7">
+    </row>
+    <row r="640" spans="1:6">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -15108,11 +13188,8 @@
       <c r="F640">
         <v>1</v>
       </c>
-      <c r="G640">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="641" spans="1:7">
+    </row>
+    <row r="641" spans="1:6">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -15131,11 +13208,8 @@
       <c r="F641">
         <v>1</v>
       </c>
-      <c r="G641">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="642" spans="1:7">
+    </row>
+    <row r="642" spans="1:6">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -15154,11 +13228,8 @@
       <c r="F642">
         <v>1</v>
       </c>
-      <c r="G642">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="643" spans="1:7">
+    </row>
+    <row r="643" spans="1:6">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -15177,11 +13248,8 @@
       <c r="F643">
         <v>2</v>
       </c>
-      <c r="G643">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="644" spans="1:7">
+    </row>
+    <row r="644" spans="1:6">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -15200,11 +13268,8 @@
       <c r="F644">
         <v>2</v>
       </c>
-      <c r="G644">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="645" spans="1:7">
+    </row>
+    <row r="645" spans="1:6">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -15223,11 +13288,8 @@
       <c r="F645">
         <v>1</v>
       </c>
-      <c r="G645">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="646" spans="1:7">
+    </row>
+    <row r="646" spans="1:6">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -15246,11 +13308,8 @@
       <c r="F646">
         <v>1</v>
       </c>
-      <c r="G646">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="647" spans="1:7">
+    </row>
+    <row r="647" spans="1:6">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -15269,11 +13328,8 @@
       <c r="F647">
         <v>2</v>
       </c>
-      <c r="G647">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="648" spans="1:7">
+    </row>
+    <row r="648" spans="1:6">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -15292,11 +13348,8 @@
       <c r="F648">
         <v>1</v>
       </c>
-      <c r="G648">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="649" spans="1:7">
+    </row>
+    <row r="649" spans="1:6">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -15315,11 +13368,8 @@
       <c r="F649">
         <v>1</v>
       </c>
-      <c r="G649">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="650" spans="1:7">
+    </row>
+    <row r="650" spans="1:6">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -15338,11 +13388,8 @@
       <c r="F650">
         <v>10</v>
       </c>
-      <c r="G650">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="651" spans="1:7">
+    </row>
+    <row r="651" spans="1:6">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -15361,11 +13408,8 @@
       <c r="F651">
         <v>2</v>
       </c>
-      <c r="G651">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="652" spans="1:7">
+    </row>
+    <row r="652" spans="1:6">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -15384,11 +13428,8 @@
       <c r="F652">
         <v>1</v>
       </c>
-      <c r="G652">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="653" spans="1:7">
+    </row>
+    <row r="653" spans="1:6">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -15407,11 +13448,8 @@
       <c r="F653">
         <v>2</v>
       </c>
-      <c r="G653">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="654" spans="1:7">
+    </row>
+    <row r="654" spans="1:6">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -15430,11 +13468,8 @@
       <c r="F654">
         <v>2</v>
       </c>
-      <c r="G654">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="655" spans="1:7">
+    </row>
+    <row r="655" spans="1:6">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -15453,11 +13488,8 @@
       <c r="F655">
         <v>2</v>
       </c>
-      <c r="G655">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="656" spans="1:7">
+    </row>
+    <row r="656" spans="1:6">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -15476,11 +13508,8 @@
       <c r="F656">
         <v>3</v>
       </c>
-      <c r="G656">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="657" spans="1:7">
+    </row>
+    <row r="657" spans="1:6">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -15499,11 +13528,8 @@
       <c r="F657">
         <v>2</v>
       </c>
-      <c r="G657">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="658" spans="1:7">
+    </row>
+    <row r="658" spans="1:6">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -15522,11 +13548,8 @@
       <c r="F658">
         <v>2</v>
       </c>
-      <c r="G658">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="659" spans="1:7">
+    </row>
+    <row r="659" spans="1:6">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -15545,11 +13568,8 @@
       <c r="F659">
         <v>3</v>
       </c>
-      <c r="G659">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="660" spans="1:7">
+    </row>
+    <row r="660" spans="1:6">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -15568,11 +13588,8 @@
       <c r="F660">
         <v>7</v>
       </c>
-      <c r="G660">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="661" spans="1:7">
+    </row>
+    <row r="661" spans="1:6">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -15591,11 +13608,8 @@
       <c r="F661">
         <v>1</v>
       </c>
-      <c r="G661">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="662" spans="1:7">
+    </row>
+    <row r="662" spans="1:6">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -15614,11 +13628,8 @@
       <c r="F662">
         <v>2</v>
       </c>
-      <c r="G662">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="663" spans="1:7">
+    </row>
+    <row r="663" spans="1:6">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -15637,11 +13648,8 @@
       <c r="F663">
         <v>3</v>
       </c>
-      <c r="G663">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="664" spans="1:7">
+    </row>
+    <row r="664" spans="1:6">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -15660,11 +13668,8 @@
       <c r="F664">
         <v>2</v>
       </c>
-      <c r="G664">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="665" spans="1:7">
+    </row>
+    <row r="665" spans="1:6">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -15683,11 +13688,8 @@
       <c r="F665">
         <v>2</v>
       </c>
-      <c r="G665">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="666" spans="1:7">
+    </row>
+    <row r="666" spans="1:6">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -15706,11 +13708,8 @@
       <c r="F666">
         <v>2</v>
       </c>
-      <c r="G666">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="667" spans="1:7">
+    </row>
+    <row r="667" spans="1:6">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -15729,11 +13728,8 @@
       <c r="F667">
         <v>1</v>
       </c>
-      <c r="G667">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="668" spans="1:7">
+    </row>
+    <row r="668" spans="1:6">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -15752,11 +13748,8 @@
       <c r="F668">
         <v>1</v>
       </c>
-      <c r="G668">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="669" spans="1:7">
+    </row>
+    <row r="669" spans="1:6">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -15775,11 +13768,8 @@
       <c r="F669">
         <v>3</v>
       </c>
-      <c r="G669">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="670" spans="1:7">
+    </row>
+    <row r="670" spans="1:6">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -15798,11 +13788,8 @@
       <c r="F670">
         <v>7</v>
       </c>
-      <c r="G670">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="671" spans="1:7">
+    </row>
+    <row r="671" spans="1:6">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -15821,11 +13808,8 @@
       <c r="F671">
         <v>7</v>
       </c>
-      <c r="G671">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="672" spans="1:7">
+    </row>
+    <row r="672" spans="1:6">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -15844,11 +13828,8 @@
       <c r="F672">
         <v>7</v>
       </c>
-      <c r="G672">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="673" spans="1:7">
+    </row>
+    <row r="673" spans="1:6">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -15867,11 +13848,8 @@
       <c r="F673">
         <v>3</v>
       </c>
-      <c r="G673">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="674" spans="1:7">
+    </row>
+    <row r="674" spans="1:6">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -15890,11 +13868,8 @@
       <c r="F674">
         <v>3</v>
       </c>
-      <c r="G674">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="675" spans="1:7">
+    </row>
+    <row r="675" spans="1:6">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -15913,11 +13888,8 @@
       <c r="F675">
         <v>1</v>
       </c>
-      <c r="G675">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="676" spans="1:7">
+    </row>
+    <row r="676" spans="1:6">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -15936,11 +13908,8 @@
       <c r="F676">
         <v>2</v>
       </c>
-      <c r="G676">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="677" spans="1:7">
+    </row>
+    <row r="677" spans="1:6">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -15959,11 +13928,8 @@
       <c r="F677">
         <v>1</v>
       </c>
-      <c r="G677">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="678" spans="1:7">
+    </row>
+    <row r="678" spans="1:6">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -15982,11 +13948,8 @@
       <c r="F678">
         <v>2</v>
       </c>
-      <c r="G678">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="679" spans="1:7">
+    </row>
+    <row r="679" spans="1:6">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -16005,11 +13968,8 @@
       <c r="F679">
         <v>1</v>
       </c>
-      <c r="G679">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="680" spans="1:7">
+    </row>
+    <row r="680" spans="1:6">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -16028,11 +13988,8 @@
       <c r="F680">
         <v>1</v>
       </c>
-      <c r="G680">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="681" spans="1:7">
+    </row>
+    <row r="681" spans="1:6">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -16051,11 +14008,8 @@
       <c r="F681">
         <v>1</v>
       </c>
-      <c r="G681">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="682" spans="1:7">
+    </row>
+    <row r="682" spans="1:6">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -16074,11 +14028,8 @@
       <c r="F682">
         <v>10</v>
       </c>
-      <c r="G682">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="683" spans="1:7">
+    </row>
+    <row r="683" spans="1:6">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -16097,11 +14048,8 @@
       <c r="F683">
         <v>5</v>
       </c>
-      <c r="G683">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="684" spans="1:7">
+    </row>
+    <row r="684" spans="1:6">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -16120,11 +14068,8 @@
       <c r="F684">
         <v>3</v>
       </c>
-      <c r="G684">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="685" spans="1:7">
+    </row>
+    <row r="685" spans="1:6">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -16143,11 +14088,8 @@
       <c r="F685">
         <v>1</v>
       </c>
-      <c r="G685">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="686" spans="1:7">
+    </row>
+    <row r="686" spans="1:6">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -16166,11 +14108,8 @@
       <c r="F686">
         <v>1</v>
       </c>
-      <c r="G686">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="687" spans="1:7">
+    </row>
+    <row r="687" spans="1:6">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -16189,11 +14128,8 @@
       <c r="F687">
         <v>1</v>
       </c>
-      <c r="G687">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="688" spans="1:7">
+    </row>
+    <row r="688" spans="1:6">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -16212,11 +14148,8 @@
       <c r="F688">
         <v>1</v>
       </c>
-      <c r="G688">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="689" spans="1:7">
+    </row>
+    <row r="689" spans="1:6">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -16235,11 +14168,8 @@
       <c r="F689">
         <v>2</v>
       </c>
-      <c r="G689">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="690" spans="1:7">
+    </row>
+    <row r="690" spans="1:6">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -16258,11 +14188,8 @@
       <c r="F690">
         <v>1</v>
       </c>
-      <c r="G690">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="691" spans="1:7">
+    </row>
+    <row r="691" spans="1:6">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -16281,11 +14208,8 @@
       <c r="F691">
         <v>1</v>
       </c>
-      <c r="G691">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="692" spans="1:7">
+    </row>
+    <row r="692" spans="1:6">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -16304,11 +14228,8 @@
       <c r="F692">
         <v>1</v>
       </c>
-      <c r="G692">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="693" spans="1:7">
+    </row>
+    <row r="693" spans="1:6">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -16327,11 +14248,8 @@
       <c r="F693">
         <v>4</v>
       </c>
-      <c r="G693">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="694" spans="1:7">
+    </row>
+    <row r="694" spans="1:6">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -16350,11 +14268,8 @@
       <c r="F694">
         <v>1</v>
       </c>
-      <c r="G694">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="695" spans="1:7">
+    </row>
+    <row r="695" spans="1:6">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -16373,11 +14288,8 @@
       <c r="F695">
         <v>2</v>
       </c>
-      <c r="G695">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="696" spans="1:7">
+    </row>
+    <row r="696" spans="1:6">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -16396,11 +14308,8 @@
       <c r="F696">
         <v>1</v>
       </c>
-      <c r="G696">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="697" spans="1:7">
+    </row>
+    <row r="697" spans="1:6">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -16419,11 +14328,8 @@
       <c r="F697">
         <v>1</v>
       </c>
-      <c r="G697">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="698" spans="1:7">
+    </row>
+    <row r="698" spans="1:6">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -16442,11 +14348,8 @@
       <c r="F698">
         <v>8</v>
       </c>
-      <c r="G698">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="699" spans="1:7">
+    </row>
+    <row r="699" spans="1:6">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -16465,11 +14368,8 @@
       <c r="F699">
         <v>10</v>
       </c>
-      <c r="G699">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="700" spans="1:7">
+    </row>
+    <row r="700" spans="1:6">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -16487,9 +14387,6 @@
       </c>
       <c r="F700">
         <v>10</v>
-      </c>
-      <c r="G700">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/reduced_dataset.xlsx
+++ b/reduced_dataset.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>thickness</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>blaChroma</t>
+  </si>
+  <si>
+    <t>class</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F700"/>
+  <dimension ref="A1:G700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -428,8 +434,11 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -448,8 +457,11 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -468,8 +480,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -488,8 +503,11 @@
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -508,8 +526,11 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -528,8 +549,11 @@
       <c r="F7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -548,8 +572,11 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -568,8 +595,11 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -588,8 +618,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -608,8 +641,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -628,8 +664,11 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -648,8 +687,11 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -668,8 +710,11 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -688,8 +733,11 @@
       <c r="F15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -708,8 +756,11 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -728,8 +779,11 @@
       <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -748,8 +802,11 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -768,8 +825,11 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -788,8 +848,11 @@
       <c r="F20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -808,8 +871,11 @@
       <c r="F21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -828,8 +894,11 @@
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -848,8 +917,11 @@
       <c r="F23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -868,8 +940,11 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -888,8 +963,11 @@
       <c r="F25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -908,8 +986,11 @@
       <c r="F26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -928,8 +1009,11 @@
       <c r="F27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -948,8 +1032,11 @@
       <c r="F28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -968,8 +1055,11 @@
       <c r="F29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -988,8 +1078,11 @@
       <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1008,8 +1101,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1028,8 +1124,11 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1048,8 +1147,11 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1068,8 +1170,11 @@
       <c r="F34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1088,8 +1193,11 @@
       <c r="F35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1108,8 +1216,11 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1128,8 +1239,11 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1148,8 +1262,11 @@
       <c r="F38">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1168,8 +1285,11 @@
       <c r="F39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1188,8 +1308,11 @@
       <c r="F40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1208,8 +1331,11 @@
       <c r="F41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1228,8 +1354,11 @@
       <c r="F42">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1248,8 +1377,11 @@
       <c r="F43">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1268,8 +1400,11 @@
       <c r="F44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1288,8 +1423,11 @@
       <c r="F45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1308,8 +1446,11 @@
       <c r="F46">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1328,8 +1469,11 @@
       <c r="F47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1348,8 +1492,11 @@
       <c r="F48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1368,8 +1515,11 @@
       <c r="F49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1388,8 +1538,11 @@
       <c r="F50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1408,8 +1561,11 @@
       <c r="F51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1428,8 +1584,11 @@
       <c r="F52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1448,8 +1607,11 @@
       <c r="F53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1468,8 +1630,11 @@
       <c r="F54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1488,8 +1653,11 @@
       <c r="F55">
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1508,8 +1676,11 @@
       <c r="F56">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1528,8 +1699,11 @@
       <c r="F57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1548,8 +1722,11 @@
       <c r="F58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1568,8 +1745,11 @@
       <c r="F59">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1588,8 +1768,11 @@
       <c r="F60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1608,8 +1791,11 @@
       <c r="F61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1628,8 +1814,11 @@
       <c r="F62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1648,8 +1837,11 @@
       <c r="F63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1668,8 +1860,11 @@
       <c r="F64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1688,8 +1883,11 @@
       <c r="F65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1708,8 +1906,11 @@
       <c r="F66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1728,8 +1929,11 @@
       <c r="F67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1748,8 +1952,11 @@
       <c r="F68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1768,8 +1975,11 @@
       <c r="F69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1788,8 +1998,11 @@
       <c r="F70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1808,8 +2021,11 @@
       <c r="F71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1828,8 +2044,11 @@
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1848,8 +2067,11 @@
       <c r="F73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1868,8 +2090,11 @@
       <c r="F74">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1888,8 +2113,11 @@
       <c r="F75">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1908,8 +2136,11 @@
       <c r="F76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1928,8 +2159,11 @@
       <c r="F77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1948,8 +2182,11 @@
       <c r="F78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1968,8 +2205,11 @@
       <c r="F79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1988,8 +2228,11 @@
       <c r="F80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2008,8 +2251,11 @@
       <c r="F81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2028,8 +2274,11 @@
       <c r="F82">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2048,8 +2297,11 @@
       <c r="F83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2068,8 +2320,11 @@
       <c r="F84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2088,8 +2343,11 @@
       <c r="F85">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2108,8 +2366,11 @@
       <c r="F86">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2128,8 +2389,11 @@
       <c r="F87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2148,8 +2412,11 @@
       <c r="F88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2168,8 +2435,11 @@
       <c r="F89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2188,8 +2458,11 @@
       <c r="F90">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2208,8 +2481,11 @@
       <c r="F91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2228,8 +2504,11 @@
       <c r="F92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2248,8 +2527,11 @@
       <c r="F93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2268,8 +2550,11 @@
       <c r="F94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2288,8 +2573,11 @@
       <c r="F95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2308,8 +2596,11 @@
       <c r="F96">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2328,8 +2619,11 @@
       <c r="F97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2348,8 +2642,11 @@
       <c r="F98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2368,8 +2665,11 @@
       <c r="F99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2388,8 +2688,11 @@
       <c r="F100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2408,8 +2711,11 @@
       <c r="F101">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2428,8 +2734,11 @@
       <c r="F102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2448,8 +2757,11 @@
       <c r="F103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2468,8 +2780,11 @@
       <c r="F104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2488,8 +2803,11 @@
       <c r="F105">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2508,8 +2826,11 @@
       <c r="F106">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2528,8 +2849,11 @@
       <c r="F107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2548,8 +2872,11 @@
       <c r="F108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2568,8 +2895,11 @@
       <c r="F109">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2588,8 +2918,11 @@
       <c r="F110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2608,8 +2941,11 @@
       <c r="F111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2628,8 +2964,11 @@
       <c r="F112">
         <v>5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2648,8 +2987,11 @@
       <c r="F113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2668,8 +3010,11 @@
       <c r="F114">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2688,8 +3033,11 @@
       <c r="F115">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2708,8 +3056,11 @@
       <c r="F116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2728,8 +3079,11 @@
       <c r="F117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2748,8 +3102,11 @@
       <c r="F118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2768,8 +3125,11 @@
       <c r="F119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2788,8 +3148,11 @@
       <c r="F120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2808,8 +3171,11 @@
       <c r="F121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2828,8 +3194,11 @@
       <c r="F122">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2848,8 +3217,11 @@
       <c r="F123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2868,8 +3240,11 @@
       <c r="F124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2888,8 +3263,11 @@
       <c r="F125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2908,8 +3286,11 @@
       <c r="F126">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2928,8 +3309,11 @@
       <c r="F127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2948,8 +3332,11 @@
       <c r="F128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2968,8 +3355,11 @@
       <c r="F129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2988,8 +3378,11 @@
       <c r="F130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3008,8 +3401,11 @@
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3028,8 +3424,11 @@
       <c r="F132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3048,8 +3447,11 @@
       <c r="F133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3068,8 +3470,11 @@
       <c r="F134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3088,8 +3493,11 @@
       <c r="F135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3108,8 +3516,11 @@
       <c r="F136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3128,8 +3539,11 @@
       <c r="F137">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3148,8 +3562,11 @@
       <c r="F138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3168,8 +3585,11 @@
       <c r="F139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3188,8 +3608,11 @@
       <c r="F140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3208,8 +3631,11 @@
       <c r="F141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3228,8 +3654,11 @@
       <c r="F142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3248,8 +3677,11 @@
       <c r="F143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3268,8 +3700,11 @@
       <c r="F144">
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3288,8 +3723,11 @@
       <c r="F145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3308,8 +3746,11 @@
       <c r="F146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3328,8 +3769,11 @@
       <c r="F147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3348,8 +3792,11 @@
       <c r="F148">
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3368,8 +3815,11 @@
       <c r="F149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3388,8 +3838,11 @@
       <c r="F150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3408,8 +3861,11 @@
       <c r="F151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3428,8 +3884,11 @@
       <c r="F152">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3448,8 +3907,11 @@
       <c r="F153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3468,8 +3930,11 @@
       <c r="F154">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3488,8 +3953,11 @@
       <c r="F155">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3508,8 +3976,11 @@
       <c r="F156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="G156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3528,8 +3999,11 @@
       <c r="F157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3548,8 +4022,11 @@
       <c r="F158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="G158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3568,8 +4045,11 @@
       <c r="F159">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3588,8 +4068,11 @@
       <c r="F160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3608,8 +4091,11 @@
       <c r="F161">
         <v>7</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3628,8 +4114,11 @@
       <c r="F162">
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3648,8 +4137,11 @@
       <c r="F163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3668,8 +4160,11 @@
       <c r="F164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3688,8 +4183,11 @@
       <c r="F165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3708,8 +4206,11 @@
       <c r="F166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3728,8 +4229,11 @@
       <c r="F167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3748,8 +4252,11 @@
       <c r="F168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3768,8 +4275,11 @@
       <c r="F169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3788,8 +4298,11 @@
       <c r="F170">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3808,8 +4321,11 @@
       <c r="F171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3828,8 +4344,11 @@
       <c r="F172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3848,8 +4367,11 @@
       <c r="F173">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3868,8 +4390,11 @@
       <c r="F174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3888,8 +4413,11 @@
       <c r="F175">
         <v>10</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3908,8 +4436,11 @@
       <c r="F176">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3928,8 +4459,11 @@
       <c r="F177">
         <v>5</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3948,8 +4482,11 @@
       <c r="F178">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3968,8 +4505,11 @@
       <c r="F179">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3988,8 +4528,11 @@
       <c r="F180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4008,8 +4551,11 @@
       <c r="F181">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4028,8 +4574,11 @@
       <c r="F182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4048,8 +4597,11 @@
       <c r="F183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4068,8 +4620,11 @@
       <c r="F184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4088,8 +4643,11 @@
       <c r="F185">
         <v>7</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4108,8 +4666,11 @@
       <c r="F186">
         <v>5</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4128,8 +4689,11 @@
       <c r="F187">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4148,8 +4712,11 @@
       <c r="F188">
         <v>7</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4168,8 +4735,11 @@
       <c r="F189">
         <v>7</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4188,8 +4758,11 @@
       <c r="F190">
         <v>9</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4208,8 +4781,11 @@
       <c r="F191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4228,8 +4804,11 @@
       <c r="F192">
         <v>7</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4248,8 +4827,11 @@
       <c r="F193">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:6">
+      <c r="G193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4268,8 +4850,11 @@
       <c r="F194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:6">
+      <c r="G194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4288,8 +4873,11 @@
       <c r="F195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:6">
+      <c r="G195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4308,8 +4896,11 @@
       <c r="F196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:6">
+      <c r="G196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4328,8 +4919,11 @@
       <c r="F197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:6">
+      <c r="G197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4348,8 +4942,11 @@
       <c r="F198">
         <v>7</v>
       </c>
-    </row>
-    <row r="199" spans="1:6">
+      <c r="G198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4368,8 +4965,11 @@
       <c r="F199">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:6">
+      <c r="G199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4388,8 +4988,11 @@
       <c r="F200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:6">
+      <c r="G200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4408,8 +5011,11 @@
       <c r="F201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:6">
+      <c r="G201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4428,8 +5034,11 @@
       <c r="F202">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:6">
+      <c r="G202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4448,8 +5057,11 @@
       <c r="F203">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6">
+      <c r="G203">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4468,8 +5080,11 @@
       <c r="F204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:6">
+      <c r="G204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4488,8 +5103,11 @@
       <c r="F205">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:6">
+      <c r="G205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4508,8 +5126,11 @@
       <c r="F206">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:6">
+      <c r="G206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4528,8 +5149,11 @@
       <c r="F207">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:6">
+      <c r="G207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4548,8 +5172,11 @@
       <c r="F208">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:6">
+      <c r="G208">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4568,8 +5195,11 @@
       <c r="F209">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:6">
+      <c r="G209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4588,8 +5218,11 @@
       <c r="F210">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:6">
+      <c r="G210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4608,8 +5241,11 @@
       <c r="F211">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:6">
+      <c r="G211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4628,8 +5264,11 @@
       <c r="F212">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6">
+      <c r="G212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4648,8 +5287,11 @@
       <c r="F213">
         <v>7</v>
       </c>
-    </row>
-    <row r="214" spans="1:6">
+      <c r="G213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4668,8 +5310,11 @@
       <c r="F214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:6">
+      <c r="G214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4688,8 +5333,11 @@
       <c r="F215">
         <v>7</v>
       </c>
-    </row>
-    <row r="216" spans="1:6">
+      <c r="G215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4708,8 +5356,11 @@
       <c r="F216">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:6">
+      <c r="G216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4728,8 +5379,11 @@
       <c r="F217">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:6">
+      <c r="G217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4748,8 +5402,11 @@
       <c r="F218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:6">
+      <c r="G218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4768,8 +5425,11 @@
       <c r="F219">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:6">
+      <c r="G219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4788,8 +5448,11 @@
       <c r="F220">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6">
+      <c r="G220">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4808,8 +5471,11 @@
       <c r="F221">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:6">
+      <c r="G221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4828,8 +5494,11 @@
       <c r="F222">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:6">
+      <c r="G222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4848,8 +5517,11 @@
       <c r="F223">
         <v>9</v>
       </c>
-    </row>
-    <row r="224" spans="1:6">
+      <c r="G223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4868,8 +5540,11 @@
       <c r="F224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:6">
+      <c r="G224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4888,8 +5563,11 @@
       <c r="F225">
         <v>7</v>
       </c>
-    </row>
-    <row r="226" spans="1:6">
+      <c r="G225">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4908,8 +5586,11 @@
       <c r="F226">
         <v>7</v>
       </c>
-    </row>
-    <row r="227" spans="1:6">
+      <c r="G226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4928,8 +5609,11 @@
       <c r="F227">
         <v>2</v>
       </c>
-    </row>
-    <row r="228" spans="1:6">
+      <c r="G227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4948,8 +5632,11 @@
       <c r="F228">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6">
+      <c r="G228">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4968,8 +5655,11 @@
       <c r="F229">
         <v>7</v>
       </c>
-    </row>
-    <row r="230" spans="1:6">
+      <c r="G229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4988,8 +5678,11 @@
       <c r="F230">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:6">
+      <c r="G230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5008,8 +5701,11 @@
       <c r="F231">
         <v>9</v>
       </c>
-    </row>
-    <row r="232" spans="1:6">
+      <c r="G231">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5028,8 +5724,11 @@
       <c r="F232">
         <v>7</v>
       </c>
-    </row>
-    <row r="233" spans="1:6">
+      <c r="G232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5048,8 +5747,11 @@
       <c r="F233">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6">
+      <c r="G233">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5068,8 +5770,11 @@
       <c r="F234">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:6">
+      <c r="G234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5088,8 +5793,11 @@
       <c r="F235">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:6">
+      <c r="G235">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5108,8 +5816,11 @@
       <c r="F236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:6">
+      <c r="G236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5128,8 +5839,11 @@
       <c r="F237">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:6">
+      <c r="G237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5148,8 +5862,11 @@
       <c r="F238">
         <v>4</v>
       </c>
-    </row>
-    <row r="239" spans="1:6">
+      <c r="G238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5168,8 +5885,11 @@
       <c r="F239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:6">
+      <c r="G239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5188,8 +5908,11 @@
       <c r="F240">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:6">
+      <c r="G240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5208,8 +5931,11 @@
       <c r="F241">
         <v>5</v>
       </c>
-    </row>
-    <row r="242" spans="1:6">
+      <c r="G241">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5228,8 +5954,11 @@
       <c r="F242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:6">
+      <c r="G242">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5248,8 +5977,11 @@
       <c r="F243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:6">
+      <c r="G243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5268,8 +6000,11 @@
       <c r="F244">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:6">
+      <c r="G244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5288,8 +6023,11 @@
       <c r="F245">
         <v>5</v>
       </c>
-    </row>
-    <row r="246" spans="1:6">
+      <c r="G245">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5308,8 +6046,11 @@
       <c r="F246">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:6">
+      <c r="G246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5328,8 +6069,11 @@
       <c r="F247">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:6">
+      <c r="G247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5348,8 +6092,11 @@
       <c r="F248">
         <v>7</v>
       </c>
-    </row>
-    <row r="249" spans="1:6">
+      <c r="G248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5368,8 +6115,11 @@
       <c r="F249">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:6">
+      <c r="G249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5388,8 +6138,11 @@
       <c r="F250">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:6">
+      <c r="G250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5408,8 +6161,11 @@
       <c r="F251">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:6">
+      <c r="G251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5428,8 +6184,11 @@
       <c r="F252">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:6">
+      <c r="G252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5448,8 +6207,11 @@
       <c r="F253">
         <v>5</v>
       </c>
-    </row>
-    <row r="254" spans="1:6">
+      <c r="G253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5468,8 +6230,11 @@
       <c r="F254">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:6">
+      <c r="G254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5488,8 +6253,11 @@
       <c r="F255">
         <v>7</v>
       </c>
-    </row>
-    <row r="256" spans="1:6">
+      <c r="G255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5508,8 +6276,11 @@
       <c r="F256">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:6">
+      <c r="G256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5528,8 +6299,11 @@
       <c r="F257">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:6">
+      <c r="G257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5548,8 +6322,11 @@
       <c r="F258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:6">
+      <c r="G258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5568,8 +6345,11 @@
       <c r="F259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:6">
+      <c r="G259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5588,8 +6368,11 @@
       <c r="F260">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:6">
+      <c r="G260">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5608,8 +6391,11 @@
       <c r="F261">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:6">
+      <c r="G261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5628,8 +6414,11 @@
       <c r="F262">
         <v>5</v>
       </c>
-    </row>
-    <row r="263" spans="1:6">
+      <c r="G262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5648,8 +6437,11 @@
       <c r="F263">
         <v>10</v>
       </c>
-    </row>
-    <row r="264" spans="1:6">
+      <c r="G263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5668,8 +6460,11 @@
       <c r="F264">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:6">
+      <c r="G264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5688,8 +6483,11 @@
       <c r="F265">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:6">
+      <c r="G265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5708,8 +6506,11 @@
       <c r="F266">
         <v>5</v>
       </c>
-    </row>
-    <row r="267" spans="1:6">
+      <c r="G266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5728,8 +6529,11 @@
       <c r="F267">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:6">
+      <c r="G267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5748,8 +6552,11 @@
       <c r="F268">
         <v>4</v>
       </c>
-    </row>
-    <row r="269" spans="1:6">
+      <c r="G268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5768,8 +6575,11 @@
       <c r="F269">
         <v>7</v>
       </c>
-    </row>
-    <row r="270" spans="1:6">
+      <c r="G269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5788,8 +6598,11 @@
       <c r="F270">
         <v>8</v>
       </c>
-    </row>
-    <row r="271" spans="1:6">
+      <c r="G270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5808,8 +6621,11 @@
       <c r="F271">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:6">
+      <c r="G271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5828,8 +6644,11 @@
       <c r="F272">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:6">
+      <c r="G272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5848,8 +6667,11 @@
       <c r="F273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:6">
+      <c r="G273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5868,8 +6690,11 @@
       <c r="F274">
         <v>7</v>
       </c>
-    </row>
-    <row r="275" spans="1:6">
+      <c r="G274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5888,8 +6713,11 @@
       <c r="F275">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:6">
+      <c r="G275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5908,8 +6736,11 @@
       <c r="F276">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:6">
+      <c r="G276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5928,8 +6759,11 @@
       <c r="F277">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:6">
+      <c r="G277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5948,8 +6782,11 @@
       <c r="F278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:6">
+      <c r="G278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5968,8 +6805,11 @@
       <c r="F279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:6">
+      <c r="G279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5988,8 +6828,11 @@
       <c r="F280">
         <v>3</v>
       </c>
-    </row>
-    <row r="281" spans="1:6">
+      <c r="G280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6008,8 +6851,11 @@
       <c r="F281">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:6">
+      <c r="G281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6028,8 +6874,11 @@
       <c r="F282">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:6">
+      <c r="G282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6048,8 +6897,11 @@
       <c r="F283">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:6">
+      <c r="G283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6068,8 +6920,11 @@
       <c r="F284">
         <v>5</v>
       </c>
-    </row>
-    <row r="285" spans="1:6">
+      <c r="G284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6088,8 +6943,11 @@
       <c r="F285">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:6">
+      <c r="G285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6108,8 +6966,11 @@
       <c r="F286">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:6">
+      <c r="G286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6128,8 +6989,11 @@
       <c r="F287">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="1:6">
+      <c r="G287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6148,8 +7012,11 @@
       <c r="F288">
         <v>4</v>
       </c>
-    </row>
-    <row r="289" spans="1:6">
+      <c r="G288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6168,8 +7035,11 @@
       <c r="F289">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:6">
+      <c r="G289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6188,8 +7058,11 @@
       <c r="F290">
         <v>5</v>
       </c>
-    </row>
-    <row r="291" spans="1:6">
+      <c r="G290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6208,8 +7081,11 @@
       <c r="F291">
         <v>4</v>
       </c>
-    </row>
-    <row r="292" spans="1:6">
+      <c r="G291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6228,8 +7104,11 @@
       <c r="F292">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:6">
+      <c r="G292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6248,8 +7127,11 @@
       <c r="F293">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:6">
+      <c r="G293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6268,8 +7150,11 @@
       <c r="F294">
         <v>6</v>
       </c>
-    </row>
-    <row r="295" spans="1:6">
+      <c r="G294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -6288,8 +7173,11 @@
       <c r="F295">
         <v>2</v>
       </c>
-    </row>
-    <row r="296" spans="1:6">
+      <c r="G295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6308,8 +7196,11 @@
       <c r="F296">
         <v>2</v>
       </c>
-    </row>
-    <row r="297" spans="1:6">
+      <c r="G296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6328,8 +7219,11 @@
       <c r="F297">
         <v>7</v>
       </c>
-    </row>
-    <row r="298" spans="1:6">
+      <c r="G297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -6348,8 +7242,11 @@
       <c r="F298">
         <v>4</v>
       </c>
-    </row>
-    <row r="299" spans="1:6">
+      <c r="G298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6368,8 +7265,11 @@
       <c r="F299">
         <v>2</v>
       </c>
-    </row>
-    <row r="300" spans="1:6">
+      <c r="G299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6388,8 +7288,11 @@
       <c r="F300">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:6">
+      <c r="G300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -6408,8 +7311,11 @@
       <c r="F301">
         <v>7</v>
       </c>
-    </row>
-    <row r="302" spans="1:6">
+      <c r="G301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6428,8 +7334,11 @@
       <c r="F302">
         <v>7</v>
       </c>
-    </row>
-    <row r="303" spans="1:6">
+      <c r="G302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6448,8 +7357,11 @@
       <c r="F303">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:6">
+      <c r="G303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6468,8 +7380,11 @@
       <c r="F304">
         <v>7</v>
       </c>
-    </row>
-    <row r="305" spans="1:6">
+      <c r="G304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6488,8 +7403,11 @@
       <c r="F305">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:6">
+      <c r="G305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6508,8 +7426,11 @@
       <c r="F306">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:6">
+      <c r="G306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6528,8 +7449,11 @@
       <c r="F307">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:6">
+      <c r="G307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6548,8 +7472,11 @@
       <c r="F308">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:6">
+      <c r="G308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6568,8 +7495,11 @@
       <c r="F309">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:6">
+      <c r="G309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6588,8 +7518,11 @@
       <c r="F310">
         <v>8</v>
       </c>
-    </row>
-    <row r="311" spans="1:6">
+      <c r="G310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6608,8 +7541,11 @@
       <c r="F311">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="1:6">
+      <c r="G311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6628,8 +7564,11 @@
       <c r="F312">
         <v>2</v>
       </c>
-    </row>
-    <row r="313" spans="1:6">
+      <c r="G312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6648,8 +7587,11 @@
       <c r="F313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:6">
+      <c r="G313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6668,8 +7610,11 @@
       <c r="F314">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:6">
+      <c r="G314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6688,8 +7633,11 @@
       <c r="F315">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:6">
+      <c r="G315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6708,8 +7656,11 @@
       <c r="F316">
         <v>2</v>
       </c>
-    </row>
-    <row r="317" spans="1:6">
+      <c r="G316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6728,8 +7679,11 @@
       <c r="F317">
         <v>4</v>
       </c>
-    </row>
-    <row r="318" spans="1:6">
+      <c r="G317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6748,8 +7702,11 @@
       <c r="F318">
         <v>4</v>
       </c>
-    </row>
-    <row r="319" spans="1:6">
+      <c r="G318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6768,8 +7725,11 @@
       <c r="F319">
         <v>8</v>
       </c>
-    </row>
-    <row r="320" spans="1:6">
+      <c r="G319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6788,8 +7748,11 @@
       <c r="F320">
         <v>3</v>
       </c>
-    </row>
-    <row r="321" spans="1:6">
+      <c r="G320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6808,8 +7771,11 @@
       <c r="F321">
         <v>7</v>
       </c>
-    </row>
-    <row r="322" spans="1:6">
+      <c r="G321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6828,8 +7794,11 @@
       <c r="F322">
         <v>7</v>
       </c>
-    </row>
-    <row r="323" spans="1:6">
+      <c r="G322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6848,8 +7817,11 @@
       <c r="F323">
         <v>3</v>
       </c>
-    </row>
-    <row r="324" spans="1:6">
+      <c r="G323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6868,8 +7840,11 @@
       <c r="F324">
         <v>3</v>
       </c>
-    </row>
-    <row r="325" spans="1:6">
+      <c r="G324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6888,8 +7863,11 @@
       <c r="F325">
         <v>4</v>
       </c>
-    </row>
-    <row r="326" spans="1:6">
+      <c r="G325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6908,8 +7886,11 @@
       <c r="F326">
         <v>3</v>
       </c>
-    </row>
-    <row r="327" spans="1:6">
+      <c r="G326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -6928,8 +7909,11 @@
       <c r="F327">
         <v>2</v>
       </c>
-    </row>
-    <row r="328" spans="1:6">
+      <c r="G327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6948,8 +7932,11 @@
       <c r="F328">
         <v>5</v>
       </c>
-    </row>
-    <row r="329" spans="1:6">
+      <c r="G328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6968,8 +7955,11 @@
       <c r="F329">
         <v>2</v>
       </c>
-    </row>
-    <row r="330" spans="1:6">
+      <c r="G329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6988,8 +7978,11 @@
       <c r="F330">
         <v>3</v>
       </c>
-    </row>
-    <row r="331" spans="1:6">
+      <c r="G330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -7008,8 +8001,11 @@
       <c r="F331">
         <v>7</v>
       </c>
-    </row>
-    <row r="332" spans="1:6">
+      <c r="G331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -7028,8 +8024,11 @@
       <c r="F332">
         <v>6</v>
       </c>
-    </row>
-    <row r="333" spans="1:6">
+      <c r="G332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -7048,8 +8047,11 @@
       <c r="F333">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:6">
+      <c r="G333">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -7068,8 +8070,11 @@
       <c r="F334">
         <v>2</v>
       </c>
-    </row>
-    <row r="335" spans="1:6">
+      <c r="G334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -7088,8 +8093,11 @@
       <c r="F335">
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:6">
+      <c r="G335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -7108,8 +8116,11 @@
       <c r="F336">
         <v>3</v>
       </c>
-    </row>
-    <row r="337" spans="1:6">
+      <c r="G336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -7128,8 +8139,11 @@
       <c r="F337">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:6">
+      <c r="G337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -7148,8 +8162,11 @@
       <c r="F338">
         <v>3</v>
       </c>
-    </row>
-    <row r="339" spans="1:6">
+      <c r="G338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -7168,8 +8185,11 @@
       <c r="F339">
         <v>3</v>
       </c>
-    </row>
-    <row r="340" spans="1:6">
+      <c r="G339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -7188,8 +8208,11 @@
       <c r="F340">
         <v>2</v>
       </c>
-    </row>
-    <row r="341" spans="1:6">
+      <c r="G340">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -7208,8 +8231,11 @@
       <c r="F341">
         <v>4</v>
       </c>
-    </row>
-    <row r="342" spans="1:6">
+      <c r="G341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -7228,8 +8254,11 @@
       <c r="F342">
         <v>7</v>
       </c>
-    </row>
-    <row r="343" spans="1:6">
+      <c r="G342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -7248,8 +8277,11 @@
       <c r="F343">
         <v>3</v>
       </c>
-    </row>
-    <row r="344" spans="1:6">
+      <c r="G343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -7268,8 +8300,11 @@
       <c r="F344">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:6">
+      <c r="G344">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -7288,8 +8323,11 @@
       <c r="F345">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:6">
+      <c r="G345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -7308,8 +8346,11 @@
       <c r="F346">
         <v>9</v>
       </c>
-    </row>
-    <row r="347" spans="1:6">
+      <c r="G346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -7328,8 +8369,11 @@
       <c r="F347">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:6">
+      <c r="G347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -7348,8 +8392,11 @@
       <c r="F348">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:6">
+      <c r="G348">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -7368,8 +8415,11 @@
       <c r="F349">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:6">
+      <c r="G349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -7388,8 +8438,11 @@
       <c r="F350">
         <v>3</v>
       </c>
-    </row>
-    <row r="351" spans="1:6">
+      <c r="G350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7408,8 +8461,11 @@
       <c r="F351">
         <v>7</v>
       </c>
-    </row>
-    <row r="352" spans="1:6">
+      <c r="G351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -7428,8 +8484,11 @@
       <c r="F352">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:6">
+      <c r="G352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -7448,8 +8507,11 @@
       <c r="F353">
         <v>3</v>
       </c>
-    </row>
-    <row r="354" spans="1:6">
+      <c r="G353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -7468,8 +8530,11 @@
       <c r="F354">
         <v>4</v>
       </c>
-    </row>
-    <row r="355" spans="1:6">
+      <c r="G354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -7488,8 +8553,11 @@
       <c r="F355">
         <v>4</v>
       </c>
-    </row>
-    <row r="356" spans="1:6">
+      <c r="G355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -7508,8 +8576,11 @@
       <c r="F356">
         <v>2</v>
       </c>
-    </row>
-    <row r="357" spans="1:6">
+      <c r="G356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -7528,8 +8599,11 @@
       <c r="F357">
         <v>2</v>
       </c>
-    </row>
-    <row r="358" spans="1:6">
+      <c r="G357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -7548,8 +8622,11 @@
       <c r="F358">
         <v>3</v>
       </c>
-    </row>
-    <row r="359" spans="1:6">
+      <c r="G358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -7568,8 +8645,11 @@
       <c r="F359">
         <v>7</v>
       </c>
-    </row>
-    <row r="360" spans="1:6">
+      <c r="G359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -7588,8 +8668,11 @@
       <c r="F360">
         <v>4</v>
       </c>
-    </row>
-    <row r="361" spans="1:6">
+      <c r="G360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -7608,8 +8691,11 @@
       <c r="F361">
         <v>3</v>
       </c>
-    </row>
-    <row r="362" spans="1:6">
+      <c r="G361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -7628,8 +8714,11 @@
       <c r="F362">
         <v>8</v>
       </c>
-    </row>
-    <row r="363" spans="1:6">
+      <c r="G362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -7648,8 +8737,11 @@
       <c r="F363">
         <v>5</v>
       </c>
-    </row>
-    <row r="364" spans="1:6">
+      <c r="G363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -7668,8 +8760,11 @@
       <c r="F364">
         <v>2</v>
       </c>
-    </row>
-    <row r="365" spans="1:6">
+      <c r="G364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -7688,8 +8783,11 @@
       <c r="F365">
         <v>2</v>
       </c>
-    </row>
-    <row r="366" spans="1:6">
+      <c r="G365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -7708,8 +8806,11 @@
       <c r="F366">
         <v>3</v>
       </c>
-    </row>
-    <row r="367" spans="1:6">
+      <c r="G366">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -7728,8 +8829,11 @@
       <c r="F367">
         <v>2</v>
       </c>
-    </row>
-    <row r="368" spans="1:6">
+      <c r="G367">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -7748,8 +8852,11 @@
       <c r="F368">
         <v>7</v>
       </c>
-    </row>
-    <row r="369" spans="1:6">
+      <c r="G368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -7768,8 +8875,11 @@
       <c r="F369">
         <v>8</v>
       </c>
-    </row>
-    <row r="370" spans="1:6">
+      <c r="G369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -7788,8 +8898,11 @@
       <c r="F370">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:6">
+      <c r="G370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -7808,8 +8921,11 @@
       <c r="F371">
         <v>2</v>
       </c>
-    </row>
-    <row r="372" spans="1:6">
+      <c r="G371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -7828,8 +8944,11 @@
       <c r="F372">
         <v>2</v>
       </c>
-    </row>
-    <row r="373" spans="1:6">
+      <c r="G372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -7848,8 +8967,11 @@
       <c r="F373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:6">
+      <c r="G373">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -7868,8 +8990,11 @@
       <c r="F374">
         <v>2</v>
       </c>
-    </row>
-    <row r="375" spans="1:6">
+      <c r="G374">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -7888,8 +9013,11 @@
       <c r="F375">
         <v>2</v>
       </c>
-    </row>
-    <row r="376" spans="1:6">
+      <c r="G375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -7908,8 +9036,11 @@
       <c r="F376">
         <v>2</v>
       </c>
-    </row>
-    <row r="377" spans="1:6">
+      <c r="G376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -7928,8 +9059,11 @@
       <c r="F377">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:6">
+      <c r="G377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -7948,8 +9082,11 @@
       <c r="F378">
         <v>2</v>
       </c>
-    </row>
-    <row r="379" spans="1:6">
+      <c r="G378">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -7968,8 +9105,11 @@
       <c r="F379">
         <v>2</v>
       </c>
-    </row>
-    <row r="380" spans="1:6">
+      <c r="G379">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -7988,8 +9128,11 @@
       <c r="F380">
         <v>2</v>
       </c>
-    </row>
-    <row r="381" spans="1:6">
+      <c r="G380">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -8008,8 +9151,11 @@
       <c r="F381">
         <v>3</v>
       </c>
-    </row>
-    <row r="382" spans="1:6">
+      <c r="G381">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -8028,8 +9174,11 @@
       <c r="F382">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:6">
+      <c r="G382">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -8048,8 +9197,11 @@
       <c r="F383">
         <v>7</v>
       </c>
-    </row>
-    <row r="384" spans="1:6">
+      <c r="G383">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -8068,8 +9220,11 @@
       <c r="F384">
         <v>3</v>
       </c>
-    </row>
-    <row r="385" spans="1:6">
+      <c r="G384">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -8088,8 +9243,11 @@
       <c r="F385">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:6">
+      <c r="G385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -8108,8 +9266,11 @@
       <c r="F386">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:6">
+      <c r="G386">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -8128,8 +9289,11 @@
       <c r="F387">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:6">
+      <c r="G387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -8148,8 +9312,11 @@
       <c r="F388">
         <v>7</v>
       </c>
-    </row>
-    <row r="389" spans="1:6">
+      <c r="G388">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -8168,8 +9335,11 @@
       <c r="F389">
         <v>3</v>
       </c>
-    </row>
-    <row r="390" spans="1:6">
+      <c r="G389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -8188,8 +9358,11 @@
       <c r="F390">
         <v>2</v>
       </c>
-    </row>
-    <row r="391" spans="1:6">
+      <c r="G390">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -8208,8 +9381,11 @@
       <c r="F391">
         <v>2</v>
       </c>
-    </row>
-    <row r="392" spans="1:6">
+      <c r="G391">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -8228,8 +9404,11 @@
       <c r="F392">
         <v>2</v>
       </c>
-    </row>
-    <row r="393" spans="1:6">
+      <c r="G392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -8248,8 +9427,11 @@
       <c r="F393">
         <v>7</v>
       </c>
-    </row>
-    <row r="394" spans="1:6">
+      <c r="G393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -8268,8 +9450,11 @@
       <c r="F394">
         <v>2</v>
       </c>
-    </row>
-    <row r="395" spans="1:6">
+      <c r="G394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -8288,8 +9473,11 @@
       <c r="F395">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:6">
+      <c r="G395">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -8308,8 +9496,11 @@
       <c r="F396">
         <v>2</v>
       </c>
-    </row>
-    <row r="397" spans="1:6">
+      <c r="G396">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -8328,8 +9519,11 @@
       <c r="F397">
         <v>2</v>
       </c>
-    </row>
-    <row r="398" spans="1:6">
+      <c r="G397">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -8348,8 +9542,11 @@
       <c r="F398">
         <v>3</v>
       </c>
-    </row>
-    <row r="399" spans="1:6">
+      <c r="G398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -8368,8 +9565,11 @@
       <c r="F399">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:6">
+      <c r="G399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -8388,8 +9588,11 @@
       <c r="F400">
         <v>2</v>
       </c>
-    </row>
-    <row r="401" spans="1:6">
+      <c r="G400">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -8408,8 +9611,11 @@
       <c r="F401">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:6">
+      <c r="G401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -8428,8 +9634,11 @@
       <c r="F402">
         <v>9</v>
       </c>
-    </row>
-    <row r="403" spans="1:6">
+      <c r="G402">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -8448,8 +9657,11 @@
       <c r="F403">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:6">
+      <c r="G403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -8468,8 +9680,11 @@
       <c r="F404">
         <v>2</v>
       </c>
-    </row>
-    <row r="405" spans="1:6">
+      <c r="G404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -8488,8 +9703,11 @@
       <c r="F405">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:6">
+      <c r="G405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -8508,8 +9726,11 @@
       <c r="F406">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:6">
+      <c r="G406">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -8528,8 +9749,11 @@
       <c r="F407">
         <v>2</v>
       </c>
-    </row>
-    <row r="408" spans="1:6">
+      <c r="G407">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -8548,8 +9772,11 @@
       <c r="F408">
         <v>2</v>
       </c>
-    </row>
-    <row r="409" spans="1:6">
+      <c r="G408">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -8568,8 +9795,11 @@
       <c r="F409">
         <v>2</v>
       </c>
-    </row>
-    <row r="410" spans="1:6">
+      <c r="G409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -8588,8 +9818,11 @@
       <c r="F410">
         <v>3</v>
       </c>
-    </row>
-    <row r="411" spans="1:6">
+      <c r="G410">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -8608,8 +9841,11 @@
       <c r="F411">
         <v>2</v>
       </c>
-    </row>
-    <row r="412" spans="1:6">
+      <c r="G411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -8628,8 +9864,11 @@
       <c r="F412">
         <v>2</v>
       </c>
-    </row>
-    <row r="413" spans="1:6">
+      <c r="G412">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -8648,8 +9887,11 @@
       <c r="F413">
         <v>2</v>
       </c>
-    </row>
-    <row r="414" spans="1:6">
+      <c r="G413">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -8668,8 +9910,11 @@
       <c r="F414">
         <v>8</v>
       </c>
-    </row>
-    <row r="415" spans="1:6">
+      <c r="G414">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -8688,8 +9933,11 @@
       <c r="F415">
         <v>3</v>
       </c>
-    </row>
-    <row r="416" spans="1:6">
+      <c r="G415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -8708,8 +9956,11 @@
       <c r="F416">
         <v>6</v>
       </c>
-    </row>
-    <row r="417" spans="1:6">
+      <c r="G416">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -8728,8 +9979,11 @@
       <c r="F417">
         <v>3</v>
       </c>
-    </row>
-    <row r="418" spans="1:6">
+      <c r="G417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -8748,8 +10002,11 @@
       <c r="F418">
         <v>7</v>
       </c>
-    </row>
-    <row r="419" spans="1:6">
+      <c r="G418">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -8768,8 +10025,11 @@
       <c r="F419">
         <v>2</v>
       </c>
-    </row>
-    <row r="420" spans="1:6">
+      <c r="G419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -8788,8 +10048,11 @@
       <c r="F420">
         <v>3</v>
       </c>
-    </row>
-    <row r="421" spans="1:6">
+      <c r="G420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -8808,8 +10071,11 @@
       <c r="F421">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:6">
+      <c r="G421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8828,8 +10094,11 @@
       <c r="F422">
         <v>3</v>
       </c>
-    </row>
-    <row r="423" spans="1:6">
+      <c r="G422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -8848,8 +10117,11 @@
       <c r="F423">
         <v>8</v>
       </c>
-    </row>
-    <row r="424" spans="1:6">
+      <c r="G423">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -8868,8 +10140,11 @@
       <c r="F424">
         <v>3</v>
       </c>
-    </row>
-    <row r="425" spans="1:6">
+      <c r="G424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -8888,8 +10163,11 @@
       <c r="F425">
         <v>2</v>
       </c>
-    </row>
-    <row r="426" spans="1:6">
+      <c r="G425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -8908,8 +10186,11 @@
       <c r="F426">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:6">
+      <c r="G426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -8928,8 +10209,11 @@
       <c r="F427">
         <v>10</v>
       </c>
-    </row>
-    <row r="428" spans="1:6">
+      <c r="G427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -8948,8 +10232,11 @@
       <c r="F428">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:6">
+      <c r="G428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -8968,8 +10255,11 @@
       <c r="F429">
         <v>5</v>
       </c>
-    </row>
-    <row r="430" spans="1:6">
+      <c r="G429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -8988,8 +10278,11 @@
       <c r="F430">
         <v>2</v>
       </c>
-    </row>
-    <row r="431" spans="1:6">
+      <c r="G430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -9008,8 +10301,11 @@
       <c r="F431">
         <v>2</v>
       </c>
-    </row>
-    <row r="432" spans="1:6">
+      <c r="G431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -9028,8 +10324,11 @@
       <c r="F432">
         <v>2</v>
       </c>
-    </row>
-    <row r="433" spans="1:6">
+      <c r="G432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -9048,8 +10347,11 @@
       <c r="F433">
         <v>3</v>
       </c>
-    </row>
-    <row r="434" spans="1:6">
+      <c r="G433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -9068,8 +10370,11 @@
       <c r="F434">
         <v>2</v>
       </c>
-    </row>
-    <row r="435" spans="1:6">
+      <c r="G434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -9088,8 +10393,11 @@
       <c r="F435">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:6">
+      <c r="G435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -9108,8 +10416,11 @@
       <c r="F436">
         <v>4</v>
       </c>
-    </row>
-    <row r="437" spans="1:6">
+      <c r="G436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -9128,8 +10439,11 @@
       <c r="F437">
         <v>5</v>
       </c>
-    </row>
-    <row r="438" spans="1:6">
+      <c r="G437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -9148,8 +10462,11 @@
       <c r="F438">
         <v>2</v>
       </c>
-    </row>
-    <row r="439" spans="1:6">
+      <c r="G438">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -9168,8 +10485,11 @@
       <c r="F439">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:6">
+      <c r="G439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -9188,8 +10508,11 @@
       <c r="F440">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:6">
+      <c r="G440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -9208,8 +10531,11 @@
       <c r="F441">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:6">
+      <c r="G441">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -9228,8 +10554,11 @@
       <c r="F442">
         <v>10</v>
       </c>
-    </row>
-    <row r="443" spans="1:6">
+      <c r="G442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -9248,8 +10577,11 @@
       <c r="F443">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:6">
+      <c r="G443">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -9268,8 +10600,11 @@
       <c r="F444">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:6">
+      <c r="G444">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -9288,8 +10623,11 @@
       <c r="F445">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:6">
+      <c r="G445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -9308,8 +10646,11 @@
       <c r="F446">
         <v>2</v>
       </c>
-    </row>
-    <row r="447" spans="1:6">
+      <c r="G446">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -9328,8 +10669,11 @@
       <c r="F447">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:6">
+      <c r="G447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -9348,8 +10692,11 @@
       <c r="F448">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:6">
+      <c r="G448">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -9368,8 +10715,11 @@
       <c r="F449">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:6">
+      <c r="G449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -9388,8 +10738,11 @@
       <c r="F450">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:6">
+      <c r="G450">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -9408,8 +10761,11 @@
       <c r="F451">
         <v>8</v>
       </c>
-    </row>
-    <row r="452" spans="1:6">
+      <c r="G451">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -9428,8 +10784,11 @@
       <c r="F452">
         <v>2</v>
       </c>
-    </row>
-    <row r="453" spans="1:6">
+      <c r="G452">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -9448,8 +10807,11 @@
       <c r="F453">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:6">
+      <c r="G453">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -9468,8 +10830,11 @@
       <c r="F454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:6">
+      <c r="G454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -9488,8 +10853,11 @@
       <c r="F455">
         <v>10</v>
       </c>
-    </row>
-    <row r="456" spans="1:6">
+      <c r="G455">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -9508,8 +10876,11 @@
       <c r="F456">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:6">
+      <c r="G456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -9528,8 +10899,11 @@
       <c r="F457">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:6">
+      <c r="G457">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -9548,8 +10922,11 @@
       <c r="F458">
         <v>8</v>
       </c>
-    </row>
-    <row r="459" spans="1:6">
+      <c r="G458">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -9568,8 +10945,11 @@
       <c r="F459">
         <v>10</v>
       </c>
-    </row>
-    <row r="460" spans="1:6">
+      <c r="G459">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -9588,8 +10968,11 @@
       <c r="F460">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:6">
+      <c r="G460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -9608,8 +10991,11 @@
       <c r="F461">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:6">
+      <c r="G461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -9628,8 +11014,11 @@
       <c r="F462">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:6">
+      <c r="G462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -9648,8 +11037,11 @@
       <c r="F463">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:6">
+      <c r="G463">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -9668,8 +11060,11 @@
       <c r="F464">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:6">
+      <c r="G464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -9688,8 +11083,11 @@
       <c r="F465">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:6">
+      <c r="G465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -9708,8 +11106,11 @@
       <c r="F466">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:6">
+      <c r="G466">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -9728,8 +11129,11 @@
       <c r="F467">
         <v>7</v>
       </c>
-    </row>
-    <row r="468" spans="1:6">
+      <c r="G467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -9748,8 +11152,11 @@
       <c r="F468">
         <v>9</v>
       </c>
-    </row>
-    <row r="469" spans="1:6">
+      <c r="G468">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -9768,8 +11175,11 @@
       <c r="F469">
         <v>7</v>
       </c>
-    </row>
-    <row r="470" spans="1:6">
+      <c r="G469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -9788,8 +11198,11 @@
       <c r="F470">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:6">
+      <c r="G470">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -9808,8 +11221,11 @@
       <c r="F471">
         <v>2</v>
       </c>
-    </row>
-    <row r="472" spans="1:6">
+      <c r="G471">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -9828,8 +11244,11 @@
       <c r="F472">
         <v>2</v>
       </c>
-    </row>
-    <row r="473" spans="1:6">
+      <c r="G472">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -9848,8 +11267,11 @@
       <c r="F473">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:6">
+      <c r="G473">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -9868,8 +11290,11 @@
       <c r="F474">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:6">
+      <c r="G474">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -9888,8 +11313,11 @@
       <c r="F475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:6">
+      <c r="G475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -9908,8 +11336,11 @@
       <c r="F476">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:6">
+      <c r="G476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -9928,8 +11359,11 @@
       <c r="F477">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:6">
+      <c r="G477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -9948,8 +11382,11 @@
       <c r="F478">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:6">
+      <c r="G478">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -9968,8 +11405,11 @@
       <c r="F479">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:6">
+      <c r="G479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -9988,8 +11428,11 @@
       <c r="F480">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:6">
+      <c r="G480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -10008,8 +11451,11 @@
       <c r="F481">
         <v>7</v>
       </c>
-    </row>
-    <row r="482" spans="1:6">
+      <c r="G481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -10028,8 +11474,11 @@
       <c r="F482">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:6">
+      <c r="G482">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -10048,8 +11497,11 @@
       <c r="F483">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:6">
+      <c r="G483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -10068,8 +11520,11 @@
       <c r="F484">
         <v>10</v>
       </c>
-    </row>
-    <row r="485" spans="1:6">
+      <c r="G484">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -10088,8 +11543,11 @@
       <c r="F485">
         <v>9</v>
       </c>
-    </row>
-    <row r="486" spans="1:6">
+      <c r="G485">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -10108,8 +11566,11 @@
       <c r="F486">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:6">
+      <c r="G486">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -10128,8 +11589,11 @@
       <c r="F487">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:6">
+      <c r="G487">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -10148,8 +11612,11 @@
       <c r="F488">
         <v>2</v>
       </c>
-    </row>
-    <row r="489" spans="1:6">
+      <c r="G488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -10168,8 +11635,11 @@
       <c r="F489">
         <v>8</v>
       </c>
-    </row>
-    <row r="490" spans="1:6">
+      <c r="G489">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -10188,8 +11658,11 @@
       <c r="F490">
         <v>3</v>
       </c>
-    </row>
-    <row r="491" spans="1:6">
+      <c r="G490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -10208,8 +11681,11 @@
       <c r="F491">
         <v>4</v>
       </c>
-    </row>
-    <row r="492" spans="1:6">
+      <c r="G491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -10228,8 +11704,11 @@
       <c r="F492">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:6">
+      <c r="G492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -10248,8 +11727,11 @@
       <c r="F493">
         <v>7</v>
       </c>
-    </row>
-    <row r="494" spans="1:6">
+      <c r="G493">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -10268,8 +11750,11 @@
       <c r="F494">
         <v>2</v>
       </c>
-    </row>
-    <row r="495" spans="1:6">
+      <c r="G494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -10288,8 +11773,11 @@
       <c r="F495">
         <v>6</v>
       </c>
-    </row>
-    <row r="496" spans="1:6">
+      <c r="G495">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -10308,8 +11796,11 @@
       <c r="F496">
         <v>2</v>
       </c>
-    </row>
-    <row r="497" spans="1:6">
+      <c r="G496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -10328,8 +11819,11 @@
       <c r="F497">
         <v>2</v>
       </c>
-    </row>
-    <row r="498" spans="1:6">
+      <c r="G497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -10348,8 +11842,11 @@
       <c r="F498">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:6">
+      <c r="G498">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -10368,8 +11865,11 @@
       <c r="F499">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:6">
+      <c r="G499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -10388,8 +11888,11 @@
       <c r="F500">
         <v>2</v>
       </c>
-    </row>
-    <row r="501" spans="1:6">
+      <c r="G500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -10408,8 +11911,11 @@
       <c r="F501">
         <v>2</v>
       </c>
-    </row>
-    <row r="502" spans="1:6">
+      <c r="G501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -10428,8 +11934,11 @@
       <c r="F502">
         <v>3</v>
       </c>
-    </row>
-    <row r="503" spans="1:6">
+      <c r="G502">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -10448,8 +11957,11 @@
       <c r="F503">
         <v>2</v>
       </c>
-    </row>
-    <row r="504" spans="1:6">
+      <c r="G503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -10468,8 +11980,11 @@
       <c r="F504">
         <v>2</v>
       </c>
-    </row>
-    <row r="505" spans="1:6">
+      <c r="G504">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -10488,8 +12003,11 @@
       <c r="F505">
         <v>3</v>
       </c>
-    </row>
-    <row r="506" spans="1:6">
+      <c r="G505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -10508,8 +12026,11 @@
       <c r="F506">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:6">
+      <c r="G506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -10528,8 +12049,11 @@
       <c r="F507">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:6">
+      <c r="G507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -10548,8 +12072,11 @@
       <c r="F508">
         <v>4</v>
       </c>
-    </row>
-    <row r="509" spans="1:6">
+      <c r="G508">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -10568,8 +12095,11 @@
       <c r="F509">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:6">
+      <c r="G509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -10588,8 +12118,11 @@
       <c r="F510">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:6">
+      <c r="G510">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -10608,8 +12141,11 @@
       <c r="F511">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:6">
+      <c r="G511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -10628,8 +12164,11 @@
       <c r="F512">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:6">
+      <c r="G512">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -10648,8 +12187,11 @@
       <c r="F513">
         <v>2</v>
       </c>
-    </row>
-    <row r="514" spans="1:6">
+      <c r="G513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -10668,8 +12210,11 @@
       <c r="F514">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:6">
+      <c r="G514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -10688,8 +12233,11 @@
       <c r="F515">
         <v>2</v>
       </c>
-    </row>
-    <row r="516" spans="1:6">
+      <c r="G515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -10708,8 +12256,11 @@
       <c r="F516">
         <v>8</v>
       </c>
-    </row>
-    <row r="517" spans="1:6">
+      <c r="G516">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -10728,8 +12279,11 @@
       <c r="F517">
         <v>9</v>
       </c>
-    </row>
-    <row r="518" spans="1:6">
+      <c r="G517">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -10748,8 +12302,11 @@
       <c r="F518">
         <v>1</v>
       </c>
-    </row>
-    <row r="519" spans="1:6">
+      <c r="G518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -10768,8 +12325,11 @@
       <c r="F519">
         <v>2</v>
       </c>
-    </row>
-    <row r="520" spans="1:6">
+      <c r="G519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -10788,8 +12348,11 @@
       <c r="F520">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:6">
+      <c r="G520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -10808,8 +12371,11 @@
       <c r="F521">
         <v>9</v>
       </c>
-    </row>
-    <row r="522" spans="1:6">
+      <c r="G521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -10828,8 +12394,11 @@
       <c r="F522">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:6">
+      <c r="G522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -10848,8 +12417,11 @@
       <c r="F523">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:6">
+      <c r="G523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -10868,8 +12440,11 @@
       <c r="F524">
         <v>7</v>
       </c>
-    </row>
-    <row r="525" spans="1:6">
+      <c r="G524">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -10888,8 +12463,11 @@
       <c r="F525">
         <v>5</v>
       </c>
-    </row>
-    <row r="526" spans="1:6">
+      <c r="G525">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -10908,8 +12486,11 @@
       <c r="F526">
         <v>2</v>
       </c>
-    </row>
-    <row r="527" spans="1:6">
+      <c r="G526">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -10928,8 +12509,11 @@
       <c r="F527">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:6">
+      <c r="G527">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -10948,8 +12532,11 @@
       <c r="F528">
         <v>1</v>
       </c>
-    </row>
-    <row r="529" spans="1:6">
+      <c r="G528">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -10968,8 +12555,11 @@
       <c r="F529">
         <v>3</v>
       </c>
-    </row>
-    <row r="530" spans="1:6">
+      <c r="G529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -10988,8 +12578,11 @@
       <c r="F530">
         <v>1</v>
       </c>
-    </row>
-    <row r="531" spans="1:6">
+      <c r="G530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -11008,8 +12601,11 @@
       <c r="F531">
         <v>2</v>
       </c>
-    </row>
-    <row r="532" spans="1:6">
+      <c r="G531">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -11028,8 +12624,11 @@
       <c r="F532">
         <v>6</v>
       </c>
-    </row>
-    <row r="533" spans="1:6">
+      <c r="G532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -11048,8 +12647,11 @@
       <c r="F533">
         <v>2</v>
       </c>
-    </row>
-    <row r="534" spans="1:6">
+      <c r="G533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -11068,8 +12670,11 @@
       <c r="F534">
         <v>3</v>
       </c>
-    </row>
-    <row r="535" spans="1:6">
+      <c r="G534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -11088,8 +12693,11 @@
       <c r="F535">
         <v>2</v>
       </c>
-    </row>
-    <row r="536" spans="1:6">
+      <c r="G535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -11108,8 +12716,11 @@
       <c r="F536">
         <v>2</v>
       </c>
-    </row>
-    <row r="537" spans="1:6">
+      <c r="G536">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -11128,8 +12739,11 @@
       <c r="F537">
         <v>3</v>
       </c>
-    </row>
-    <row r="538" spans="1:6">
+      <c r="G537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -11148,8 +12762,11 @@
       <c r="F538">
         <v>3</v>
       </c>
-    </row>
-    <row r="539" spans="1:6">
+      <c r="G538">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -11168,8 +12785,11 @@
       <c r="F539">
         <v>3</v>
       </c>
-    </row>
-    <row r="540" spans="1:6">
+      <c r="G539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -11188,8 +12808,11 @@
       <c r="F540">
         <v>2</v>
       </c>
-    </row>
-    <row r="541" spans="1:6">
+      <c r="G540">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -11208,8 +12831,11 @@
       <c r="F541">
         <v>2</v>
       </c>
-    </row>
-    <row r="542" spans="1:6">
+      <c r="G541">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -11228,8 +12854,11 @@
       <c r="F542">
         <v>2</v>
       </c>
-    </row>
-    <row r="543" spans="1:6">
+      <c r="G542">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -11248,8 +12877,11 @@
       <c r="F543">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:6">
+      <c r="G543">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -11268,8 +12900,11 @@
       <c r="F544">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:6">
+      <c r="G544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -11288,8 +12923,11 @@
       <c r="F545">
         <v>2</v>
       </c>
-    </row>
-    <row r="546" spans="1:6">
+      <c r="G545">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -11308,8 +12946,11 @@
       <c r="F546">
         <v>2</v>
       </c>
-    </row>
-    <row r="547" spans="1:6">
+      <c r="G546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -11328,8 +12969,11 @@
       <c r="F547">
         <v>2</v>
       </c>
-    </row>
-    <row r="548" spans="1:6">
+      <c r="G547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -11348,8 +12992,11 @@
       <c r="F548">
         <v>7</v>
       </c>
-    </row>
-    <row r="549" spans="1:6">
+      <c r="G548">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -11368,8 +13015,11 @@
       <c r="F549">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:6">
+      <c r="G549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -11388,8 +13038,11 @@
       <c r="F550">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:6">
+      <c r="G550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -11408,8 +13061,11 @@
       <c r="F551">
         <v>7</v>
       </c>
-    </row>
-    <row r="552" spans="1:6">
+      <c r="G551">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -11428,8 +13084,11 @@
       <c r="F552">
         <v>2</v>
       </c>
-    </row>
-    <row r="553" spans="1:6">
+      <c r="G552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -11448,8 +13107,11 @@
       <c r="F553">
         <v>3</v>
       </c>
-    </row>
-    <row r="554" spans="1:6">
+      <c r="G553">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -11468,8 +13130,11 @@
       <c r="F554">
         <v>4</v>
       </c>
-    </row>
-    <row r="555" spans="1:6">
+      <c r="G554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -11488,8 +13153,11 @@
       <c r="F555">
         <v>2</v>
       </c>
-    </row>
-    <row r="556" spans="1:6">
+      <c r="G555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -11508,8 +13176,11 @@
       <c r="F556">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:6">
+      <c r="G556">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -11528,8 +13199,11 @@
       <c r="F557">
         <v>4</v>
       </c>
-    </row>
-    <row r="558" spans="1:6">
+      <c r="G557">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -11548,8 +13222,11 @@
       <c r="F558">
         <v>2</v>
       </c>
-    </row>
-    <row r="559" spans="1:6">
+      <c r="G558">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -11568,8 +13245,11 @@
       <c r="F559">
         <v>1</v>
       </c>
-    </row>
-    <row r="560" spans="1:6">
+      <c r="G559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -11588,8 +13268,11 @@
       <c r="F560">
         <v>2</v>
       </c>
-    </row>
-    <row r="561" spans="1:6">
+      <c r="G560">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -11608,8 +13291,11 @@
       <c r="F561">
         <v>2</v>
       </c>
-    </row>
-    <row r="562" spans="1:6">
+      <c r="G561">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -11628,8 +13314,11 @@
       <c r="F562">
         <v>3</v>
       </c>
-    </row>
-    <row r="563" spans="1:6">
+      <c r="G562">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -11648,8 +13337,11 @@
       <c r="F563">
         <v>3</v>
       </c>
-    </row>
-    <row r="564" spans="1:6">
+      <c r="G563">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -11668,8 +13360,11 @@
       <c r="F564">
         <v>3</v>
       </c>
-    </row>
-    <row r="565" spans="1:6">
+      <c r="G564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -11688,8 +13383,11 @@
       <c r="F565">
         <v>2</v>
       </c>
-    </row>
-    <row r="566" spans="1:6">
+      <c r="G565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -11708,8 +13406,11 @@
       <c r="F566">
         <v>3</v>
       </c>
-    </row>
-    <row r="567" spans="1:6">
+      <c r="G566">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -11728,8 +13429,11 @@
       <c r="F567">
         <v>10</v>
       </c>
-    </row>
-    <row r="568" spans="1:6">
+      <c r="G567">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -11748,8 +13452,11 @@
       <c r="F568">
         <v>3</v>
       </c>
-    </row>
-    <row r="569" spans="1:6">
+      <c r="G568">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -11768,8 +13475,11 @@
       <c r="F569">
         <v>2</v>
       </c>
-    </row>
-    <row r="570" spans="1:6">
+      <c r="G569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -11788,8 +13498,11 @@
       <c r="F570">
         <v>2</v>
       </c>
-    </row>
-    <row r="571" spans="1:6">
+      <c r="G570">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -11808,8 +13521,11 @@
       <c r="F571">
         <v>10</v>
       </c>
-    </row>
-    <row r="572" spans="1:6">
+      <c r="G571">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -11828,8 +13544,11 @@
       <c r="F572">
         <v>8</v>
       </c>
-    </row>
-    <row r="573" spans="1:6">
+      <c r="G572">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -11848,8 +13567,11 @@
       <c r="F573">
         <v>9</v>
       </c>
-    </row>
-    <row r="574" spans="1:6">
+      <c r="G573">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -11868,8 +13590,11 @@
       <c r="F574">
         <v>2</v>
       </c>
-    </row>
-    <row r="575" spans="1:6">
+      <c r="G574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -11888,8 +13613,11 @@
       <c r="F575">
         <v>2</v>
       </c>
-    </row>
-    <row r="576" spans="1:6">
+      <c r="G575">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -11908,8 +13636,11 @@
       <c r="F576">
         <v>7</v>
       </c>
-    </row>
-    <row r="577" spans="1:6">
+      <c r="G576">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -11928,8 +13659,11 @@
       <c r="F577">
         <v>3</v>
       </c>
-    </row>
-    <row r="578" spans="1:6">
+      <c r="G577">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -11948,8 +13682,11 @@
       <c r="F578">
         <v>2</v>
       </c>
-    </row>
-    <row r="579" spans="1:6">
+      <c r="G578">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -11968,8 +13705,11 @@
       <c r="F579">
         <v>2</v>
       </c>
-    </row>
-    <row r="580" spans="1:6">
+      <c r="G579">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -11988,8 +13728,11 @@
       <c r="F580">
         <v>2</v>
       </c>
-    </row>
-    <row r="581" spans="1:6">
+      <c r="G580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -12008,8 +13751,11 @@
       <c r="F581">
         <v>3</v>
       </c>
-    </row>
-    <row r="582" spans="1:6">
+      <c r="G581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -12028,8 +13774,11 @@
       <c r="F582">
         <v>2</v>
       </c>
-    </row>
-    <row r="583" spans="1:6">
+      <c r="G582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -12048,8 +13797,11 @@
       <c r="F583">
         <v>7</v>
       </c>
-    </row>
-    <row r="584" spans="1:6">
+      <c r="G583">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -12068,8 +13820,11 @@
       <c r="F584">
         <v>6</v>
       </c>
-    </row>
-    <row r="585" spans="1:6">
+      <c r="G584">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -12088,8 +13843,11 @@
       <c r="F585">
         <v>1</v>
       </c>
-    </row>
-    <row r="586" spans="1:6">
+      <c r="G585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -12108,8 +13866,11 @@
       <c r="F586">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:6">
+      <c r="G586">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -12128,8 +13889,11 @@
       <c r="F587">
         <v>1</v>
       </c>
-    </row>
-    <row r="588" spans="1:6">
+      <c r="G587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -12148,8 +13912,11 @@
       <c r="F588">
         <v>10</v>
       </c>
-    </row>
-    <row r="589" spans="1:6">
+      <c r="G588">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -12168,8 +13935,11 @@
       <c r="F589">
         <v>2</v>
       </c>
-    </row>
-    <row r="590" spans="1:6">
+      <c r="G589">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -12188,8 +13958,11 @@
       <c r="F590">
         <v>4</v>
       </c>
-    </row>
-    <row r="591" spans="1:6">
+      <c r="G590">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -12208,8 +13981,11 @@
       <c r="F591">
         <v>1</v>
       </c>
-    </row>
-    <row r="592" spans="1:6">
+      <c r="G591">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -12228,8 +14004,11 @@
       <c r="F592">
         <v>10</v>
       </c>
-    </row>
-    <row r="593" spans="1:6">
+      <c r="G592">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -12248,8 +14027,11 @@
       <c r="F593">
         <v>7</v>
       </c>
-    </row>
-    <row r="594" spans="1:6">
+      <c r="G593">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -12268,8 +14050,11 @@
       <c r="F594">
         <v>4</v>
       </c>
-    </row>
-    <row r="595" spans="1:6">
+      <c r="G594">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -12288,8 +14073,11 @@
       <c r="F595">
         <v>1</v>
       </c>
-    </row>
-    <row r="596" spans="1:6">
+      <c r="G595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -12308,8 +14096,11 @@
       <c r="F596">
         <v>7</v>
       </c>
-    </row>
-    <row r="597" spans="1:6">
+      <c r="G596">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -12328,8 +14119,11 @@
       <c r="F597">
         <v>2</v>
       </c>
-    </row>
-    <row r="598" spans="1:6">
+      <c r="G597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -12348,8 +14142,11 @@
       <c r="F598">
         <v>2</v>
       </c>
-    </row>
-    <row r="599" spans="1:6">
+      <c r="G598">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -12368,8 +14165,11 @@
       <c r="F599">
         <v>3</v>
       </c>
-    </row>
-    <row r="600" spans="1:6">
+      <c r="G599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -12388,8 +14188,11 @@
       <c r="F600">
         <v>2</v>
       </c>
-    </row>
-    <row r="601" spans="1:6">
+      <c r="G600">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -12408,8 +14211,11 @@
       <c r="F601">
         <v>1</v>
       </c>
-    </row>
-    <row r="602" spans="1:6">
+      <c r="G601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -12428,8 +14234,11 @@
       <c r="F602">
         <v>2</v>
       </c>
-    </row>
-    <row r="603" spans="1:6">
+      <c r="G602">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -12448,8 +14257,11 @@
       <c r="F603">
         <v>2</v>
       </c>
-    </row>
-    <row r="604" spans="1:6">
+      <c r="G603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -12468,8 +14280,11 @@
       <c r="F604">
         <v>2</v>
       </c>
-    </row>
-    <row r="605" spans="1:6">
+      <c r="G604">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -12488,8 +14303,11 @@
       <c r="F605">
         <v>8</v>
       </c>
-    </row>
-    <row r="606" spans="1:6">
+      <c r="G605">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -12508,8 +14326,11 @@
       <c r="F606">
         <v>8</v>
       </c>
-    </row>
-    <row r="607" spans="1:6">
+      <c r="G606">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -12528,8 +14349,11 @@
       <c r="F607">
         <v>7</v>
       </c>
-    </row>
-    <row r="608" spans="1:6">
+      <c r="G607">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -12548,8 +14372,11 @@
       <c r="F608">
         <v>1</v>
       </c>
-    </row>
-    <row r="609" spans="1:6">
+      <c r="G608">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -12568,8 +14395,11 @@
       <c r="F609">
         <v>1</v>
       </c>
-    </row>
-    <row r="610" spans="1:6">
+      <c r="G609">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -12588,8 +14418,11 @@
       <c r="F610">
         <v>10</v>
       </c>
-    </row>
-    <row r="611" spans="1:6">
+      <c r="G610">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -12608,8 +14441,11 @@
       <c r="F611">
         <v>1</v>
       </c>
-    </row>
-    <row r="612" spans="1:6">
+      <c r="G611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -12628,8 +14464,11 @@
       <c r="F612">
         <v>7</v>
       </c>
-    </row>
-    <row r="613" spans="1:6">
+      <c r="G612">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -12648,8 +14487,11 @@
       <c r="F613">
         <v>8</v>
       </c>
-    </row>
-    <row r="614" spans="1:6">
+      <c r="G613">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -12668,8 +14510,11 @@
       <c r="F614">
         <v>10</v>
       </c>
-    </row>
-    <row r="615" spans="1:6">
+      <c r="G614">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -12688,8 +14533,11 @@
       <c r="F615">
         <v>2</v>
       </c>
-    </row>
-    <row r="616" spans="1:6">
+      <c r="G615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -12708,8 +14556,11 @@
       <c r="F616">
         <v>2</v>
       </c>
-    </row>
-    <row r="617" spans="1:6">
+      <c r="G616">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -12728,8 +14579,11 @@
       <c r="F617">
         <v>2</v>
       </c>
-    </row>
-    <row r="618" spans="1:6">
+      <c r="G617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -12748,8 +14602,11 @@
       <c r="F618">
         <v>2</v>
       </c>
-    </row>
-    <row r="619" spans="1:6">
+      <c r="G618">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -12768,8 +14625,11 @@
       <c r="F619">
         <v>1</v>
       </c>
-    </row>
-    <row r="620" spans="1:6">
+      <c r="G619">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -12788,8 +14648,11 @@
       <c r="F620">
         <v>2</v>
       </c>
-    </row>
-    <row r="621" spans="1:6">
+      <c r="G620">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -12808,8 +14671,11 @@
       <c r="F621">
         <v>2</v>
       </c>
-    </row>
-    <row r="622" spans="1:6">
+      <c r="G621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -12828,8 +14694,11 @@
       <c r="F622">
         <v>2</v>
       </c>
-    </row>
-    <row r="623" spans="1:6">
+      <c r="G622">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -12848,8 +14717,11 @@
       <c r="F623">
         <v>6</v>
       </c>
-    </row>
-    <row r="624" spans="1:6">
+      <c r="G623">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -12868,8 +14740,11 @@
       <c r="F624">
         <v>2</v>
       </c>
-    </row>
-    <row r="625" spans="1:6">
+      <c r="G624">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -12888,8 +14763,11 @@
       <c r="F625">
         <v>1</v>
       </c>
-    </row>
-    <row r="626" spans="1:6">
+      <c r="G625">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -12908,8 +14786,11 @@
       <c r="F626">
         <v>2</v>
       </c>
-    </row>
-    <row r="627" spans="1:6">
+      <c r="G626">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:7">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -12928,8 +14809,11 @@
       <c r="F627">
         <v>1</v>
       </c>
-    </row>
-    <row r="628" spans="1:6">
+      <c r="G627">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="628" spans="1:7">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -12948,8 +14832,11 @@
       <c r="F628">
         <v>7</v>
       </c>
-    </row>
-    <row r="629" spans="1:6">
+      <c r="G628">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="629" spans="1:7">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -12968,8 +14855,11 @@
       <c r="F629">
         <v>1</v>
       </c>
-    </row>
-    <row r="630" spans="1:6">
+      <c r="G629">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:7">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -12988,8 +14878,11 @@
       <c r="F630">
         <v>1</v>
       </c>
-    </row>
-    <row r="631" spans="1:6">
+      <c r="G630">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="631" spans="1:7">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -13008,8 +14901,11 @@
       <c r="F631">
         <v>1</v>
       </c>
-    </row>
-    <row r="632" spans="1:6">
+      <c r="G631">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="632" spans="1:7">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -13028,8 +14924,11 @@
       <c r="F632">
         <v>1</v>
       </c>
-    </row>
-    <row r="633" spans="1:6">
+      <c r="G632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:7">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -13048,8 +14947,11 @@
       <c r="F633">
         <v>2</v>
       </c>
-    </row>
-    <row r="634" spans="1:6">
+      <c r="G633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:7">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -13068,8 +14970,11 @@
       <c r="F634">
         <v>1</v>
       </c>
-    </row>
-    <row r="635" spans="1:6">
+      <c r="G634">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:7">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -13088,8 +14993,11 @@
       <c r="F635">
         <v>5</v>
       </c>
-    </row>
-    <row r="636" spans="1:6">
+      <c r="G635">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="636" spans="1:7">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -13108,8 +15016,11 @@
       <c r="F636">
         <v>1</v>
       </c>
-    </row>
-    <row r="637" spans="1:6">
+      <c r="G636">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="637" spans="1:7">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -13128,8 +15039,11 @@
       <c r="F637">
         <v>1</v>
       </c>
-    </row>
-    <row r="638" spans="1:6">
+      <c r="G637">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="638" spans="1:7">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -13148,8 +15062,11 @@
       <c r="F638">
         <v>10</v>
       </c>
-    </row>
-    <row r="639" spans="1:6">
+      <c r="G638">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="639" spans="1:7">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -13168,8 +15085,11 @@
       <c r="F639">
         <v>2</v>
       </c>
-    </row>
-    <row r="640" spans="1:6">
+      <c r="G639">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:7">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -13188,8 +15108,11 @@
       <c r="F640">
         <v>1</v>
       </c>
-    </row>
-    <row r="641" spans="1:6">
+      <c r="G640">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="641" spans="1:7">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -13208,8 +15131,11 @@
       <c r="F641">
         <v>1</v>
       </c>
-    </row>
-    <row r="642" spans="1:6">
+      <c r="G641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -13228,8 +15154,11 @@
       <c r="F642">
         <v>1</v>
       </c>
-    </row>
-    <row r="643" spans="1:6">
+      <c r="G642">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -13248,8 +15177,11 @@
       <c r="F643">
         <v>2</v>
       </c>
-    </row>
-    <row r="644" spans="1:6">
+      <c r="G643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -13268,8 +15200,11 @@
       <c r="F644">
         <v>2</v>
       </c>
-    </row>
-    <row r="645" spans="1:6">
+      <c r="G644">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -13288,8 +15223,11 @@
       <c r="F645">
         <v>1</v>
       </c>
-    </row>
-    <row r="646" spans="1:6">
+      <c r="G645">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -13308,8 +15246,11 @@
       <c r="F646">
         <v>1</v>
       </c>
-    </row>
-    <row r="647" spans="1:6">
+      <c r="G646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -13328,8 +15269,11 @@
       <c r="F647">
         <v>2</v>
       </c>
-    </row>
-    <row r="648" spans="1:6">
+      <c r="G647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -13348,8 +15292,11 @@
       <c r="F648">
         <v>1</v>
       </c>
-    </row>
-    <row r="649" spans="1:6">
+      <c r="G648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -13368,8 +15315,11 @@
       <c r="F649">
         <v>1</v>
       </c>
-    </row>
-    <row r="650" spans="1:6">
+      <c r="G649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -13388,8 +15338,11 @@
       <c r="F650">
         <v>10</v>
       </c>
-    </row>
-    <row r="651" spans="1:6">
+      <c r="G650">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -13408,8 +15361,11 @@
       <c r="F651">
         <v>2</v>
       </c>
-    </row>
-    <row r="652" spans="1:6">
+      <c r="G651">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -13428,8 +15384,11 @@
       <c r="F652">
         <v>1</v>
       </c>
-    </row>
-    <row r="653" spans="1:6">
+      <c r="G652">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -13448,8 +15407,11 @@
       <c r="F653">
         <v>2</v>
       </c>
-    </row>
-    <row r="654" spans="1:6">
+      <c r="G653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -13468,8 +15430,11 @@
       <c r="F654">
         <v>2</v>
       </c>
-    </row>
-    <row r="655" spans="1:6">
+      <c r="G654">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -13488,8 +15453,11 @@
       <c r="F655">
         <v>2</v>
       </c>
-    </row>
-    <row r="656" spans="1:6">
+      <c r="G655">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -13508,8 +15476,11 @@
       <c r="F656">
         <v>3</v>
       </c>
-    </row>
-    <row r="657" spans="1:6">
+      <c r="G656">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -13528,8 +15499,11 @@
       <c r="F657">
         <v>2</v>
       </c>
-    </row>
-    <row r="658" spans="1:6">
+      <c r="G657">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -13548,8 +15522,11 @@
       <c r="F658">
         <v>2</v>
       </c>
-    </row>
-    <row r="659" spans="1:6">
+      <c r="G658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -13568,8 +15545,11 @@
       <c r="F659">
         <v>3</v>
       </c>
-    </row>
-    <row r="660" spans="1:6">
+      <c r="G659">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -13588,8 +15568,11 @@
       <c r="F660">
         <v>7</v>
       </c>
-    </row>
-    <row r="661" spans="1:6">
+      <c r="G660">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -13608,8 +15591,11 @@
       <c r="F661">
         <v>1</v>
       </c>
-    </row>
-    <row r="662" spans="1:6">
+      <c r="G661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -13628,8 +15614,11 @@
       <c r="F662">
         <v>2</v>
       </c>
-    </row>
-    <row r="663" spans="1:6">
+      <c r="G662">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -13648,8 +15637,11 @@
       <c r="F663">
         <v>3</v>
       </c>
-    </row>
-    <row r="664" spans="1:6">
+      <c r="G663">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -13668,8 +15660,11 @@
       <c r="F664">
         <v>2</v>
       </c>
-    </row>
-    <row r="665" spans="1:6">
+      <c r="G664">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -13688,8 +15683,11 @@
       <c r="F665">
         <v>2</v>
       </c>
-    </row>
-    <row r="666" spans="1:6">
+      <c r="G665">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -13708,8 +15706,11 @@
       <c r="F666">
         <v>2</v>
       </c>
-    </row>
-    <row r="667" spans="1:6">
+      <c r="G666">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -13728,8 +15729,11 @@
       <c r="F667">
         <v>1</v>
       </c>
-    </row>
-    <row r="668" spans="1:6">
+      <c r="G667">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -13748,8 +15752,11 @@
       <c r="F668">
         <v>1</v>
       </c>
-    </row>
-    <row r="669" spans="1:6">
+      <c r="G668">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -13768,8 +15775,11 @@
       <c r="F669">
         <v>3</v>
       </c>
-    </row>
-    <row r="670" spans="1:6">
+      <c r="G669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -13788,8 +15798,11 @@
       <c r="F670">
         <v>7</v>
       </c>
-    </row>
-    <row r="671" spans="1:6">
+      <c r="G670">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -13808,8 +15821,11 @@
       <c r="F671">
         <v>7</v>
       </c>
-    </row>
-    <row r="672" spans="1:6">
+      <c r="G671">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -13828,8 +15844,11 @@
       <c r="F672">
         <v>7</v>
       </c>
-    </row>
-    <row r="673" spans="1:6">
+      <c r="G672">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -13848,8 +15867,11 @@
       <c r="F673">
         <v>3</v>
       </c>
-    </row>
-    <row r="674" spans="1:6">
+      <c r="G673">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -13868,8 +15890,11 @@
       <c r="F674">
         <v>3</v>
       </c>
-    </row>
-    <row r="675" spans="1:6">
+      <c r="G674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -13888,8 +15913,11 @@
       <c r="F675">
         <v>1</v>
       </c>
-    </row>
-    <row r="676" spans="1:6">
+      <c r="G675">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -13908,8 +15936,11 @@
       <c r="F676">
         <v>2</v>
       </c>
-    </row>
-    <row r="677" spans="1:6">
+      <c r="G676">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -13928,8 +15959,11 @@
       <c r="F677">
         <v>1</v>
       </c>
-    </row>
-    <row r="678" spans="1:6">
+      <c r="G677">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -13948,8 +15982,11 @@
       <c r="F678">
         <v>2</v>
       </c>
-    </row>
-    <row r="679" spans="1:6">
+      <c r="G678">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -13968,8 +16005,11 @@
       <c r="F679">
         <v>1</v>
       </c>
-    </row>
-    <row r="680" spans="1:6">
+      <c r="G679">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -13988,8 +16028,11 @@
       <c r="F680">
         <v>1</v>
       </c>
-    </row>
-    <row r="681" spans="1:6">
+      <c r="G680">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -14008,8 +16051,11 @@
       <c r="F681">
         <v>1</v>
       </c>
-    </row>
-    <row r="682" spans="1:6">
+      <c r="G681">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -14028,8 +16074,11 @@
       <c r="F682">
         <v>10</v>
       </c>
-    </row>
-    <row r="683" spans="1:6">
+      <c r="G682">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -14048,8 +16097,11 @@
       <c r="F683">
         <v>5</v>
       </c>
-    </row>
-    <row r="684" spans="1:6">
+      <c r="G683">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -14068,8 +16120,11 @@
       <c r="F684">
         <v>3</v>
       </c>
-    </row>
-    <row r="685" spans="1:6">
+      <c r="G684">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -14088,8 +16143,11 @@
       <c r="F685">
         <v>1</v>
       </c>
-    </row>
-    <row r="686" spans="1:6">
+      <c r="G685">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -14108,8 +16166,11 @@
       <c r="F686">
         <v>1</v>
       </c>
-    </row>
-    <row r="687" spans="1:6">
+      <c r="G686">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -14128,8 +16189,11 @@
       <c r="F687">
         <v>1</v>
       </c>
-    </row>
-    <row r="688" spans="1:6">
+      <c r="G687">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -14148,8 +16212,11 @@
       <c r="F688">
         <v>1</v>
       </c>
-    </row>
-    <row r="689" spans="1:6">
+      <c r="G688">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -14168,8 +16235,11 @@
       <c r="F689">
         <v>2</v>
       </c>
-    </row>
-    <row r="690" spans="1:6">
+      <c r="G689">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -14188,8 +16258,11 @@
       <c r="F690">
         <v>1</v>
       </c>
-    </row>
-    <row r="691" spans="1:6">
+      <c r="G690">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -14208,8 +16281,11 @@
       <c r="F691">
         <v>1</v>
       </c>
-    </row>
-    <row r="692" spans="1:6">
+      <c r="G691">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -14228,8 +16304,11 @@
       <c r="F692">
         <v>1</v>
       </c>
-    </row>
-    <row r="693" spans="1:6">
+      <c r="G692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -14248,8 +16327,11 @@
       <c r="F693">
         <v>4</v>
       </c>
-    </row>
-    <row r="694" spans="1:6">
+      <c r="G693">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -14268,8 +16350,11 @@
       <c r="F694">
         <v>1</v>
       </c>
-    </row>
-    <row r="695" spans="1:6">
+      <c r="G694">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -14288,8 +16373,11 @@
       <c r="F695">
         <v>2</v>
       </c>
-    </row>
-    <row r="696" spans="1:6">
+      <c r="G695">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -14308,8 +16396,11 @@
       <c r="F696">
         <v>1</v>
       </c>
-    </row>
-    <row r="697" spans="1:6">
+      <c r="G696">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -14328,8 +16419,11 @@
       <c r="F697">
         <v>1</v>
       </c>
-    </row>
-    <row r="698" spans="1:6">
+      <c r="G697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -14348,8 +16442,11 @@
       <c r="F698">
         <v>8</v>
       </c>
-    </row>
-    <row r="699" spans="1:6">
+      <c r="G698">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="699" spans="1:7">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -14368,8 +16465,11 @@
       <c r="F699">
         <v>10</v>
       </c>
-    </row>
-    <row r="700" spans="1:6">
+      <c r="G699">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="700" spans="1:7">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -14387,6 +16487,9 @@
       </c>
       <c r="F700">
         <v>10</v>
+      </c>
+      <c r="G700">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
